--- a/Predictions/2025-26/Week 1.xlsx
+++ b/Predictions/2025-26/Week 1.xlsx
@@ -1,33 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corridog/Documents/FPL-predictor/Predictions/2025-26/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBF40B2-37DD-7C4E-8C60-A962EBA53252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="33360" windowHeight="36980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1087,8 +1069,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1125,77 +1107,60 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AL146" totalsRowShown="0">
-  <autoFilter ref="A1:AL146" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="37">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL139">
-    <sortCondition descending="1" ref="AI1:AI146"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AL146" totalsRowShown="0">
+  <autoFilter ref="A1:AL146"/>
   <tableColumns count="38">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="First Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Surname"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Web Name"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Position"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GKP"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DEF"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MID"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FWD"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Team"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ARS"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="AVL"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="BUR"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="BOU"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="BRE"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="BHA"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="CHE"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="CRY"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="EVE"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="FUL"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="LEE"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="LIV"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="MCI"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="MUN"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="NEW"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="NFO"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="SUN"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="TOT"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="WHU"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="WOL"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Cost"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="ID"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="ARIMA"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="LSTM"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="PP"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="NEXT"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Health"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="PREV"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Selected"/>
+    <tableColumn id="1" name="First Name"/>
+    <tableColumn id="2" name="Surname"/>
+    <tableColumn id="3" name="Web Name"/>
+    <tableColumn id="4" name="Position"/>
+    <tableColumn id="5" name="GKP"/>
+    <tableColumn id="6" name="DEF"/>
+    <tableColumn id="7" name="MID"/>
+    <tableColumn id="8" name="FWD"/>
+    <tableColumn id="9" name="Team"/>
+    <tableColumn id="10" name="ARS"/>
+    <tableColumn id="11" name="AVL"/>
+    <tableColumn id="12" name="BUR"/>
+    <tableColumn id="13" name="BOU"/>
+    <tableColumn id="14" name="BRE"/>
+    <tableColumn id="15" name="BHA"/>
+    <tableColumn id="16" name="CHE"/>
+    <tableColumn id="17" name="CRY"/>
+    <tableColumn id="18" name="EVE"/>
+    <tableColumn id="19" name="FUL"/>
+    <tableColumn id="20" name="LEE"/>
+    <tableColumn id="21" name="LIV"/>
+    <tableColumn id="22" name="MCI"/>
+    <tableColumn id="23" name="MUN"/>
+    <tableColumn id="24" name="NEW"/>
+    <tableColumn id="25" name="NFO"/>
+    <tableColumn id="26" name="SUN"/>
+    <tableColumn id="27" name="TOT"/>
+    <tableColumn id="28" name="WHU"/>
+    <tableColumn id="29" name="WOL"/>
+    <tableColumn id="30" name="Cost"/>
+    <tableColumn id="31" name="ID"/>
+    <tableColumn id="32" name="ARIMA"/>
+    <tableColumn id="33" name="LSTM"/>
+    <tableColumn id="34" name="PP"/>
+    <tableColumn id="35" name="NEXT"/>
+    <tableColumn id="36" name="Health"/>
+    <tableColumn id="37" name="PREV"/>
+    <tableColumn id="38" name="Selected"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1233,7 +1198,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1267,7 +1232,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1302,10 +1266,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1478,21 +1441,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR172" sqref="AR172"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="29" width="0" hidden="1" customWidth="1"/>
     <col min="31" max="33" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1608,36 +1569,36 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1670,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1697,24 +1658,24 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>14.5</v>
+        <v>6</v>
       </c>
       <c r="AE2">
-        <v>385</v>
+        <v>4</v>
       </c>
       <c r="AF2">
-        <v>334.81081081081078</v>
+        <v>161.2432432432432</v>
       </c>
       <c r="AG2">
-        <v>334.81081081081078</v>
+        <v>161.2432432432432</v>
       </c>
       <c r="AH2">
-        <f>148.804804804804*1</f>
-        <v>148.80480480480401</v>
+        <f>71.66366366366366*1</f>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <f>3.1824178262147*1</f>
-        <v>3.1824178262146998</v>
+        <f>1.6284716213969992*1</f>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>1</v>
@@ -1730,13 +1691,13 @@
       </c>
       <c r="AO2">
         <f>SUMPRODUCT(Table1[Selected], Table1[PP])</f>
-        <v>1181.6096096096076</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1831,18 +1792,18 @@
         <v>5</v>
       </c>
       <c r="AF3">
-        <v>144.81081081081081</v>
+        <v>144.8108108108108</v>
       </c>
       <c r="AG3">
-        <v>144.81081081081081</v>
+        <v>144.8108108108108</v>
       </c>
       <c r="AH3">
-        <f>64.3603603603603*1</f>
-        <v>64.360360360360303</v>
+        <f>64.36036036036036*1</f>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <f>1.93730287116058*1</f>
-        <v>1.93730287116058</v>
+        <f>1.9373028711605875*1</f>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>1</v>
@@ -1854,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1976,13 +1937,13 @@
       </c>
       <c r="AO4">
         <f>SUMPRODUCT(Table1[Selected],Table1[Cost])</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AP4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2083,12 +2044,12 @@
         <v>160.2162162162162</v>
       </c>
       <c r="AH5">
-        <f>71.2072072072071*1</f>
-        <v>71.207207207207105</v>
+        <f>71.20720720720719*1</f>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <f>2.04656871766108*1</f>
-        <v>2.0465687176610801</v>
+        <f>2.0465687176610814*1</f>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>1</v>
@@ -2100,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -2201,12 +2162,12 @@
         <v>146.8648648648649</v>
       </c>
       <c r="AH6">
-        <f>65.2732732732732*1</f>
-        <v>65.273273273273205</v>
+        <f>65.27327327327328*1</f>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <f>1.39399057728233*1</f>
-        <v>1.39399057728233</v>
+        <f>1.3939905772823395*1</f>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>1</v>
@@ -2225,13 +2186,13 @@
       </c>
       <c r="AP6">
         <f>SUMPRODUCT(Table1[Selected],Table1[GKP])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2326,18 +2287,18 @@
         <v>18</v>
       </c>
       <c r="AF7">
-        <v>126.32432432432429</v>
+        <v>126.3243243243243</v>
       </c>
       <c r="AG7">
-        <v>126.32432432432429</v>
+        <v>126.3243243243243</v>
       </c>
       <c r="AH7">
-        <f>56.1441441441441*1</f>
-        <v>56.1441441441441</v>
+        <f>56.14414414414414*1</f>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <f>1.77363679028062*1</f>
-        <v>1.77363679028062</v>
+        <f>1.7736367902806256*1</f>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>1</v>
@@ -2356,13 +2317,13 @@
       </c>
       <c r="AP7">
         <f>SUMPRODUCT(Table1[Selected],Table1[DEF])</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -2457,18 +2418,18 @@
         <v>19</v>
       </c>
       <c r="AF8">
-        <v>139.67567567567571</v>
+        <v>139.6756756756757</v>
       </c>
       <c r="AG8">
-        <v>139.67567567567571</v>
+        <v>139.6756756756757</v>
       </c>
       <c r="AH8">
-        <f>62.078078078078*1</f>
-        <v>62.078078078078001</v>
+        <f>62.07807807807808*1</f>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <f>1.72097383686763*1</f>
-        <v>1.7209738368676299</v>
+        <f>1.7209738368676313*1</f>
+        <v>0</v>
       </c>
       <c r="AJ8">
         <v>1</v>
@@ -2487,13 +2448,13 @@
       </c>
       <c r="AP8">
         <f>SUMPRODUCT(Table1[Selected],Table1[MID])</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -2588,18 +2549,18 @@
         <v>20</v>
       </c>
       <c r="AF9">
-        <v>141.72972972972971</v>
+        <v>141.7297297297297</v>
       </c>
       <c r="AG9">
-        <v>141.72972972972971</v>
+        <v>141.7297297297297</v>
       </c>
       <c r="AH9">
-        <f>62.9909909909909*1</f>
-        <v>62.990990990990902</v>
+        <f>62.99099099099099*1</f>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <f>1.61609358715447*1</f>
-        <v>1.6160935871544699</v>
+        <f>1.6160935871544777*1</f>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <v>1</v>
@@ -2618,13 +2579,13 @@
       </c>
       <c r="AP9">
         <f>SUMPRODUCT(Table1[Selected],Table1[FWD])</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -2725,12 +2686,12 @@
         <v>118.1081081081081</v>
       </c>
       <c r="AH10">
-        <f>52.4924924924924*1</f>
-        <v>52.492492492492403</v>
+        <f>52.49249249249249*1</f>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <f>1.26372132303217*1</f>
-        <v>1.26372132303217</v>
+        <f>1.2637213230321795*1</f>
+        <v>0</v>
       </c>
       <c r="AJ10">
         <v>1</v>
@@ -2749,13 +2710,13 @@
       </c>
       <c r="AP10">
         <f>SUM(SUMPRODUCT(Table1[Selected],Table1[GKP]), SUMPRODUCT(Table1[Selected],Table1[DEF]), SUMPRODUCT(Table1[Selected],Table1[MID]), SUMPRODUCT(Table1[Selected],Table1[FWD]))</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -2856,15 +2817,15 @@
         <v>109.8918918918919</v>
       </c>
       <c r="AH11">
-        <f>48.8408408408408*0.973684210526315</f>
-        <v>47.555555555555479</v>
+        <f>48.84084084084085*0.9736842105263158</f>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <f>1.16119923088031*0.973684210526315</f>
-        <v>1.130641356383459</v>
+        <f>1.1611992308803147*0.9736842105263158</f>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.97368421052631582</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="AK11">
         <v>1</v>
@@ -2873,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -2974,12 +2935,12 @@
         <v>107.8378378378378</v>
       </c>
       <c r="AH12">
-        <f>47.9279279279279*1</f>
-        <v>47.927927927927897</v>
+        <f>47.927927927927925*1</f>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <f>1.10781463812123*1</f>
-        <v>1.1078146381212299</v>
+        <f>1.1078146381212384*1</f>
+        <v>0</v>
       </c>
       <c r="AJ12">
         <v>1</v>
@@ -2995,10 +2956,10 @@
       </c>
       <c r="AO12">
         <f>SUMPRODUCT(Table1[Selected], -- (Table1[PREV] = 0))</f>
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -3099,12 +3060,12 @@
         <v>107.8378378378378</v>
       </c>
       <c r="AH13">
-        <f>47.9279279279279*1</f>
-        <v>47.927927927927897</v>
+        <f>47.927927927927925*1</f>
+        <v>0</v>
       </c>
       <c r="AI13">
-        <f>1.26479591334733*1</f>
-        <v>1.2647959133473301</v>
+        <f>1.2647959133473372*1</f>
+        <v>0</v>
       </c>
       <c r="AJ13">
         <v>1</v>
@@ -3122,7 +3083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -3240,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -3335,18 +3296,18 @@
         <v>48</v>
       </c>
       <c r="AF15">
-        <v>164.32432432432429</v>
+        <v>164.3243243243243</v>
       </c>
       <c r="AG15">
-        <v>164.32432432432429</v>
+        <v>164.3243243243243</v>
       </c>
       <c r="AH15">
-        <f>73.033033033033*1</f>
-        <v>73.033033033033007</v>
+        <f>73.03303303303302*1</f>
+        <v>0</v>
       </c>
       <c r="AI15">
-        <f>1.72769289782501*1</f>
-        <v>1.7276928978250099</v>
+        <f>1.7276928978250108*1</f>
+        <v>0</v>
       </c>
       <c r="AJ15">
         <v>1</v>
@@ -3365,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -3460,18 +3421,18 @@
         <v>49</v>
       </c>
       <c r="AF16">
-        <v>126.32432432432429</v>
+        <v>126.3243243243243</v>
       </c>
       <c r="AG16">
-        <v>126.32432432432429</v>
+        <v>126.3243243243243</v>
       </c>
       <c r="AH16">
-        <f>56.1441441441441*1</f>
-        <v>56.1441441441441</v>
+        <f>56.14414414414414*1</f>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <f>1.42384449335355*1</f>
-        <v>1.4238444933535499</v>
+        <f>1.4238444933535594*1</f>
+        <v>0</v>
       </c>
       <c r="AJ16">
         <v>1</v>
@@ -3483,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -3578,18 +3539,18 @@
         <v>53</v>
       </c>
       <c r="AF17">
-        <v>85.243243243243256</v>
+        <v>85.24324324324326</v>
       </c>
       <c r="AG17">
-        <v>85.243243243243256</v>
+        <v>85.24324324324326</v>
       </c>
       <c r="AH17">
-        <f>37.8858858858858*1</f>
-        <v>37.885885885885799</v>
+        <f>37.88588588588589*1</f>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <f>1.22690405102989*1</f>
-        <v>1.2269040510298901</v>
+        <f>1.2269040510298972*1</f>
+        <v>0</v>
       </c>
       <c r="AJ17">
         <v>1</v>
@@ -3605,10 +3566,10 @@
       </c>
       <c r="AO17">
         <f>AO2-AO15*38</f>
-        <v>1181.6096096096076</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -3703,18 +3664,18 @@
         <v>55</v>
       </c>
       <c r="AF18">
-        <v>87.297297297297305</v>
+        <v>87.29729729729731</v>
       </c>
       <c r="AG18">
-        <v>87.297297297297305</v>
+        <v>87.29729729729731</v>
       </c>
       <c r="AH18">
         <f>38.7987987987988*1</f>
-        <v>38.798798798798799</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <f>1.28691821965201*1</f>
-        <v>1.2869182196520099</v>
+        <f>1.2869182196520168*1</f>
+        <v>0</v>
       </c>
       <c r="AJ18">
         <v>1</v>
@@ -3726,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -3821,18 +3782,18 @@
         <v>65</v>
       </c>
       <c r="AF19">
-        <v>172.54054054054049</v>
+        <v>172.5405405405405</v>
       </c>
       <c r="AG19">
-        <v>172.54054054054049</v>
+        <v>172.5405405405405</v>
       </c>
       <c r="AH19">
-        <f>76.6846846846846*1</f>
-        <v>76.684684684684598</v>
+        <f>76.68468468468467*1</f>
+        <v>0</v>
       </c>
       <c r="AI19">
-        <f>2.10332099037091*1</f>
-        <v>2.1033209903709098</v>
+        <f>2.1033209903709107*1</f>
+        <v>0</v>
       </c>
       <c r="AJ19">
         <v>1</v>
@@ -3848,13 +3809,13 @@
       </c>
       <c r="AO19">
         <f>SUMPRODUCT(Table1[Selected],Table1[ARS])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -3949,18 +3910,18 @@
         <v>109</v>
       </c>
       <c r="AF20">
-        <v>97.567567567567565</v>
+        <v>97.56756756756756</v>
       </c>
       <c r="AG20">
-        <v>97.567567567567565</v>
+        <v>97.56756756756756</v>
       </c>
       <c r="AH20">
-        <f>43.3633633633633*1</f>
-        <v>43.363363363363298</v>
+        <f>43.36336336336336*1</f>
+        <v>0</v>
       </c>
       <c r="AI20">
-        <f>1.04524666820111*1</f>
-        <v>1.0452466682011099</v>
+        <f>1.045246668201118*1</f>
+        <v>0</v>
       </c>
       <c r="AJ20">
         <v>1</v>
@@ -3982,7 +3943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -4077,18 +4038,18 @@
         <v>119</v>
       </c>
       <c r="AF21">
-        <v>168.43243243243239</v>
+        <v>168.4324324324324</v>
       </c>
       <c r="AG21">
-        <v>168.43243243243239</v>
+        <v>168.4324324324324</v>
       </c>
       <c r="AH21">
-        <f>74.8588588588588*1</f>
-        <v>74.858858858858795</v>
+        <f>74.85885885885885*1</f>
+        <v>0</v>
       </c>
       <c r="AI21">
-        <f>1.94782132652008*1</f>
-        <v>1.9478213265200801</v>
+        <f>1.9478213265200828*1</f>
+        <v>0</v>
       </c>
       <c r="AJ21">
         <v>1</v>
@@ -4110,15 +4071,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>238</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -4136,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -4148,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -4178,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -4199,24 +4160,24 @@
         <v>0</v>
       </c>
       <c r="AD22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE22">
-        <v>437</v>
+        <v>120</v>
       </c>
       <c r="AF22">
-        <v>233.1351351351351</v>
+        <v>169.4594594594595</v>
       </c>
       <c r="AG22">
-        <v>233.1351351351351</v>
+        <v>169.4594594594595</v>
       </c>
       <c r="AH22">
-        <f>103.615615615615*1</f>
-        <v>103.615615615615</v>
+        <f>75.31531531531532*1</f>
+        <v>0</v>
       </c>
       <c r="AI22">
-        <f>2.45817482410906*1</f>
-        <v>2.4581748241090602</v>
+        <f>2.03209889218594*1</f>
+        <v>0</v>
       </c>
       <c r="AJ22">
         <v>1</v>
@@ -4232,13 +4193,13 @@
       </c>
       <c r="AO22">
         <f>SUMPRODUCT(Table1[Selected],Table1[BOU])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -4333,18 +4294,18 @@
         <v>121</v>
       </c>
       <c r="AF23">
-        <v>126.32432432432429</v>
+        <v>126.3243243243243</v>
       </c>
       <c r="AG23">
-        <v>126.32432432432429</v>
+        <v>126.3243243243243</v>
       </c>
       <c r="AH23">
-        <f>56.1441441441441*1</f>
-        <v>56.1441441441441</v>
+        <f>56.14414414414414*1</f>
+        <v>0</v>
       </c>
       <c r="AI23">
-        <f>1.09200550214826*1</f>
-        <v>1.09200550214826</v>
+        <f>1.0920055021482686*1</f>
+        <v>0</v>
       </c>
       <c r="AJ23">
         <v>1</v>
@@ -4366,7 +4327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -4467,12 +4428,12 @@
         <v>107.8378378378378</v>
       </c>
       <c r="AH24">
-        <f>47.9279279279279*1</f>
-        <v>47.927927927927897</v>
+        <f>47.927927927927925*1</f>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <f>1.49552994379864*1</f>
-        <v>1.49552994379864</v>
+        <f>1.4955299437986473*1</f>
+        <v>0</v>
       </c>
       <c r="AJ24">
         <v>1</v>
@@ -4494,7 +4455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -4595,12 +4556,12 @@
         <v>76</v>
       </c>
       <c r="AH25">
-        <f>33.7777777777777*1</f>
-        <v>33.7777777777777</v>
+        <f>33.77777777777778*1</f>
+        <v>0</v>
       </c>
       <c r="AI25">
-        <f>1.00636788397016*1</f>
-        <v>1.00636788397016</v>
+        <f>1.0063678839701629*1</f>
+        <v>0</v>
       </c>
       <c r="AJ25">
         <v>1</v>
@@ -4616,13 +4577,13 @@
       </c>
       <c r="AO25">
         <f>SUMPRODUCT(Table1[Selected],Table1[CHE])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -4717,18 +4678,18 @@
         <v>124</v>
       </c>
       <c r="AF26">
-        <v>63.675675675675677</v>
+        <v>63.67567567567568</v>
       </c>
       <c r="AG26">
-        <v>63.675675675675677</v>
+        <v>63.67567567567568</v>
       </c>
       <c r="AH26">
-        <f>28.3003003003002*1</f>
-        <v>28.300300300300201</v>
+        <f>28.300300300300297*1</f>
+        <v>0</v>
       </c>
       <c r="AI26">
-        <f>0.657361477797444*1</f>
-        <v>0.65736147779744403</v>
+        <f>0.6573614777974441*1</f>
+        <v>0</v>
       </c>
       <c r="AJ26">
         <v>1</v>
@@ -4744,13 +4705,13 @@
       </c>
       <c r="AO26">
         <f>SUMPRODUCT(Table1[Selected],Table1[CRY])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -4845,18 +4806,18 @@
         <v>125</v>
       </c>
       <c r="AF27">
-        <v>97.567567567567565</v>
+        <v>97.56756756756756</v>
       </c>
       <c r="AG27">
-        <v>97.567567567567565</v>
+        <v>97.56756756756756</v>
       </c>
       <c r="AH27">
-        <f>43.3633633633633*1</f>
-        <v>43.363363363363298</v>
+        <f>43.36336336336336*1</f>
+        <v>0</v>
       </c>
       <c r="AI27">
-        <f>1.01388766780557*1</f>
-        <v>1.0138876678055699</v>
+        <f>1.0138876678055788*1</f>
+        <v>0</v>
       </c>
       <c r="AJ27">
         <v>1</v>
@@ -4878,7 +4839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -4979,12 +4940,12 @@
         <v>86.27027027027026</v>
       </c>
       <c r="AH28">
-        <f>38.3423423423423*1</f>
-        <v>38.342342342342299</v>
+        <f>38.342342342342334*1</f>
+        <v>0</v>
       </c>
       <c r="AI28">
-        <f>0.888021649292033*1</f>
-        <v>0.88802164929203298</v>
+        <f>0.8880216492920334*1</f>
+        <v>0</v>
       </c>
       <c r="AJ28">
         <v>1</v>
@@ -5006,7 +4967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -5107,12 +5068,12 @@
         <v>124.2702702702703</v>
       </c>
       <c r="AH29">
-        <f>55.2312312312312*1</f>
-        <v>55.231231231231199</v>
+        <f>55.23123123123122*1</f>
+        <v>0</v>
       </c>
       <c r="AI29">
-        <f>1.16581783800686*1</f>
-        <v>1.16581783800686</v>
+        <f>1.1658178380068651*1</f>
+        <v>0</v>
       </c>
       <c r="AJ29">
         <v>1</v>
@@ -5134,7 +5095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -5229,18 +5190,18 @@
         <v>145</v>
       </c>
       <c r="AF30">
-        <v>95.513513513513516</v>
+        <v>95.51351351351352</v>
       </c>
       <c r="AG30">
-        <v>95.513513513513516</v>
+        <v>95.51351351351352</v>
       </c>
       <c r="AH30">
-        <f>42.4504504504504*1</f>
-        <v>42.450450450450397</v>
+        <f>42.450450450450454*1</f>
+        <v>0</v>
       </c>
       <c r="AI30">
-        <f>1.15605452604074*1</f>
-        <v>1.15605452604074</v>
+        <f>1.156054526040749*1</f>
+        <v>0</v>
       </c>
       <c r="AJ30">
         <v>1</v>
@@ -5256,13 +5217,13 @@
       </c>
       <c r="AO30">
         <f>SUMPRODUCT(Table1[Selected],Table1[LIV])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42">
       <c r="A31" t="s">
         <v>108</v>
       </c>
@@ -5363,12 +5324,12 @@
         <v>150.972972972973</v>
       </c>
       <c r="AH31">
-        <f>67.099099099099*1</f>
-        <v>67.099099099099007</v>
+        <f>67.09909909909909*1</f>
+        <v>0</v>
       </c>
       <c r="AI31">
-        <f>1.71860950463598*1</f>
-        <v>1.7186095046359799</v>
+        <f>1.7186095046359893*1</f>
+        <v>0</v>
       </c>
       <c r="AJ31">
         <v>1</v>
@@ -5390,7 +5351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -5485,18 +5446,18 @@
         <v>158</v>
       </c>
       <c r="AF32">
-        <v>133.51351351351349</v>
+        <v>133.5135135135135</v>
       </c>
       <c r="AG32">
-        <v>133.51351351351349</v>
+        <v>133.5135135135135</v>
       </c>
       <c r="AH32">
-        <f>59.3393393393393*1</f>
-        <v>59.339339339339297</v>
+        <f>59.33933933933934*1</f>
+        <v>0</v>
       </c>
       <c r="AI32">
-        <f>1.23809336015996*1</f>
-        <v>1.23809336015996</v>
+        <f>1.2380933601599633*1</f>
+        <v>0</v>
       </c>
       <c r="AJ32">
         <v>1</v>
@@ -5512,13 +5473,13 @@
       </c>
       <c r="AO32">
         <f>SUMPRODUCT(Table1[Selected],Table1[MUN])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -5613,18 +5574,18 @@
         <v>162</v>
       </c>
       <c r="AF33">
-        <v>95.513513513513516</v>
+        <v>95.51351351351352</v>
       </c>
       <c r="AG33">
-        <v>95.513513513513516</v>
+        <v>95.51351351351352</v>
       </c>
       <c r="AH33">
-        <f>42.4504504504504*1</f>
-        <v>42.450450450450397</v>
+        <f>42.450450450450454*1</f>
+        <v>0</v>
       </c>
       <c r="AI33">
-        <f>1.12597814264987*1</f>
-        <v>1.1259781426498701</v>
+        <f>1.1259781426498725*1</f>
+        <v>0</v>
       </c>
       <c r="AJ33">
         <v>1</v>
@@ -5640,13 +5601,13 @@
       </c>
       <c r="AO33">
         <f>SUMPRODUCT(Table1[Selected],Table1[NEW])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -5741,17 +5702,17 @@
         <v>172</v>
       </c>
       <c r="AF34">
-        <v>210.54054054054049</v>
+        <v>210.5405405405405</v>
       </c>
       <c r="AG34">
-        <v>210.54054054054049</v>
+        <v>210.5405405405405</v>
       </c>
       <c r="AH34">
-        <f>93.5735735735735*0</f>
+        <f>93.57357357357357*0</f>
         <v>0</v>
       </c>
       <c r="AI34">
-        <f>2.05650729262473*0</f>
+        <f>2.0565072926247314*0</f>
         <v>0</v>
       </c>
       <c r="AJ34">
@@ -5768,13 +5729,13 @@
       </c>
       <c r="AO34">
         <f>SUMPRODUCT(Table1[Selected],Table1[NFO])</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -5869,18 +5830,18 @@
         <v>176</v>
       </c>
       <c r="AF35">
-        <v>106.81081081081081</v>
+        <v>106.8108108108108</v>
       </c>
       <c r="AG35">
-        <v>106.81081081081081</v>
+        <v>106.8108108108108</v>
       </c>
       <c r="AH35">
-        <f>47.4714714714714*1</f>
-        <v>47.471471471471403</v>
+        <f>47.47147147147147*1</f>
+        <v>0</v>
       </c>
       <c r="AI35">
-        <f>1.39840582806608*1</f>
-        <v>1.39840582806608</v>
+        <f>1.3984058280660865*1</f>
+        <v>0</v>
       </c>
       <c r="AJ35">
         <v>1</v>
@@ -5902,7 +5863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -5997,18 +5958,18 @@
         <v>188</v>
       </c>
       <c r="AF36">
-        <v>92.432432432432435</v>
+        <v>92.43243243243244</v>
       </c>
       <c r="AG36">
-        <v>92.432432432432435</v>
+        <v>92.43243243243244</v>
       </c>
       <c r="AH36">
-        <f>41.081081081081*1</f>
-        <v>41.081081081081003</v>
+        <f>41.08108108108108*1</f>
+        <v>0</v>
       </c>
       <c r="AI36">
         <f>0.989013603690696*1</f>
-        <v>0.98901360369069602</v>
+        <v>0</v>
       </c>
       <c r="AJ36">
         <v>1</v>
@@ -6030,7 +5991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -6152,13 +6113,13 @@
       </c>
       <c r="AO37">
         <f>SUMPRODUCT(Table1[Selected],Table1[WHU])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP37">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42">
       <c r="A38" t="s">
         <v>123</v>
       </c>
@@ -6253,18 +6214,18 @@
         <v>204</v>
       </c>
       <c r="AF38">
-        <v>93.459459459459467</v>
+        <v>93.45945945945947</v>
       </c>
       <c r="AG38">
-        <v>93.459459459459467</v>
+        <v>93.45945945945947</v>
       </c>
       <c r="AH38">
-        <f>41.5375375375375*1</f>
-        <v>41.537537537537503</v>
+        <f>41.53753753753754*1</f>
+        <v>0</v>
       </c>
       <c r="AI38">
-        <f>0.854272904327372*1</f>
-        <v>0.85427290432737202</v>
+        <f>0.8542729043273724*1</f>
+        <v>0</v>
       </c>
       <c r="AJ38">
         <v>1</v>
@@ -6286,7 +6247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:42">
       <c r="A39" t="s">
         <v>125</v>
       </c>
@@ -6381,18 +6342,18 @@
         <v>205</v>
       </c>
       <c r="AF39">
-        <v>88.324324324324323</v>
+        <v>88.32432432432432</v>
       </c>
       <c r="AG39">
-        <v>88.324324324324323</v>
+        <v>88.32432432432432</v>
       </c>
       <c r="AH39">
-        <f>39.2552552552552*1</f>
-        <v>39.2552552552552</v>
+        <f>39.25525525525526*1</f>
+        <v>0</v>
       </c>
       <c r="AI39">
-        <f>1.07832462035701*1</f>
-        <v>1.07832462035701</v>
+        <f>1.0783246203570103*1</f>
+        <v>0</v>
       </c>
       <c r="AJ39">
         <v>1</v>
@@ -6404,7 +6365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:42">
       <c r="A40" t="s">
         <v>127</v>
       </c>
@@ -6499,18 +6460,18 @@
         <v>215</v>
       </c>
       <c r="AF40">
-        <v>144.81081081081081</v>
+        <v>144.8108108108108</v>
       </c>
       <c r="AG40">
-        <v>144.81081081081081</v>
+        <v>144.8108108108108</v>
       </c>
       <c r="AH40">
-        <f>64.3603603603603*1</f>
-        <v>64.360360360360303</v>
+        <f>64.36036036036036*1</f>
+        <v>0</v>
       </c>
       <c r="AI40">
-        <f>1.47085255610148*1</f>
-        <v>1.47085255610148</v>
+        <f>1.4708525561014845*1</f>
+        <v>0</v>
       </c>
       <c r="AJ40">
         <v>1</v>
@@ -6522,7 +6483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:42">
       <c r="A41" t="s">
         <v>129</v>
       </c>
@@ -6617,18 +6578,18 @@
         <v>223</v>
       </c>
       <c r="AF41">
-        <v>137.62162162162161</v>
+        <v>137.6216216216216</v>
       </c>
       <c r="AG41">
-        <v>137.62162162162161</v>
+        <v>137.6216216216216</v>
       </c>
       <c r="AH41">
-        <f>61.1651651651651*1</f>
-        <v>61.165165165165099</v>
+        <f>61.165165165165156*1</f>
+        <v>0</v>
       </c>
       <c r="AI41">
-        <f>1.30356849023829*1</f>
-        <v>1.30356849023829</v>
+        <f>1.303568490238298*1</f>
+        <v>0</v>
       </c>
       <c r="AJ41">
         <v>1</v>
@@ -6640,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:42">
       <c r="A42" t="s">
         <v>132</v>
       </c>
@@ -6741,12 +6702,12 @@
         <v>81.13513513513513</v>
       </c>
       <c r="AH42">
-        <f>36.06006006006*1</f>
-        <v>36.060060060060003</v>
+        <f>36.06006006006006*1</f>
+        <v>0</v>
       </c>
       <c r="AI42">
-        <f>0.985970620117217*1</f>
-        <v>0.98597062011721703</v>
+        <f>0.9859706201172174*1</f>
+        <v>0</v>
       </c>
       <c r="AJ42">
         <v>1</v>
@@ -6758,7 +6719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:42">
       <c r="A43" t="s">
         <v>134</v>
       </c>
@@ -6860,11 +6821,11 @@
       </c>
       <c r="AH43">
         <f>97.6816816816817*1</f>
-        <v>97.681681681681695</v>
+        <v>0</v>
       </c>
       <c r="AI43">
-        <f>1.73629769777115*1</f>
-        <v>1.73629769777115</v>
+        <f>1.7362976977711502*1</f>
+        <v>0</v>
       </c>
       <c r="AJ43">
         <v>1</v>
@@ -6876,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:42">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -6977,12 +6938,12 @@
         <v>108.8648648648649</v>
       </c>
       <c r="AH44">
-        <f>48.3843843843843*1</f>
-        <v>48.384384384384298</v>
+        <f>48.38438438438438*1</f>
+        <v>0</v>
       </c>
       <c r="AI44">
-        <f>1.42521236150875*1</f>
-        <v>1.42521236150875</v>
+        <f>1.4252123615087526*1</f>
+        <v>0</v>
       </c>
       <c r="AJ44">
         <v>1</v>
@@ -6994,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:42">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -7089,18 +7050,18 @@
         <v>236</v>
       </c>
       <c r="AF45">
-        <v>140.70270270270271</v>
+        <v>140.7027027027027</v>
       </c>
       <c r="AG45">
-        <v>140.70270270270271</v>
+        <v>140.7027027027027</v>
       </c>
       <c r="AH45">
-        <f>62.5345345345345*1</f>
-        <v>62.534534534534501</v>
+        <f>62.53453453453454*1</f>
+        <v>0</v>
       </c>
       <c r="AI45">
-        <f>1.25709652556023*1</f>
-        <v>1.25709652556023</v>
+        <f>1.2570965255602355*1</f>
+        <v>0</v>
       </c>
       <c r="AJ45">
         <v>1</v>
@@ -7112,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:42">
       <c r="A46" t="s">
         <v>141</v>
       </c>
@@ -7207,18 +7168,18 @@
         <v>240</v>
       </c>
       <c r="AF46">
-        <v>99.621621621621614</v>
+        <v>99.62162162162161</v>
       </c>
       <c r="AG46">
-        <v>99.621621621621614</v>
+        <v>99.62162162162161</v>
       </c>
       <c r="AH46">
-        <f>44.2762762762762*1</f>
-        <v>44.276276276276199</v>
+        <f>44.27627627627627*1</f>
+        <v>0</v>
       </c>
       <c r="AI46">
-        <f>1.1078039759173*1</f>
-        <v>1.1078039759173</v>
+        <f>1.1078039759173073*1</f>
+        <v>0</v>
       </c>
       <c r="AJ46">
         <v>1</v>
@@ -7230,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:42">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -7331,12 +7292,12 @@
         <v>161.2432432432432</v>
       </c>
       <c r="AH47">
-        <f>71.6636636636636*1</f>
-        <v>71.663663663663598</v>
+        <f>71.66366366366366*1</f>
+        <v>0</v>
       </c>
       <c r="AI47">
-        <f>1.71988482889324*1</f>
-        <v>1.71988482889324</v>
+        <f>1.7198848288932416*1</f>
+        <v>0</v>
       </c>
       <c r="AJ47">
         <v>1</v>
@@ -7348,15 +7309,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:42">
       <c r="A48" t="s">
-        <v>331</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s">
-        <v>332</v>
+        <v>147</v>
       </c>
       <c r="C48" t="s">
-        <v>332</v>
+        <v>148</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
@@ -7374,7 +7335,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -7395,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -7431,42 +7392,42 @@
         <v>0</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC48">
         <v>0</v>
       </c>
       <c r="AD48">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE48">
-        <v>631</v>
+        <v>250</v>
       </c>
       <c r="AF48">
-        <v>215.67567567567571</v>
+        <v>169.4594594594595</v>
       </c>
       <c r="AG48">
-        <v>215.67567567567571</v>
+        <v>169.4594594594595</v>
       </c>
       <c r="AH48">
-        <f>95.8558558558558*1</f>
-        <v>95.855855855855793</v>
+        <f>75.31531531531532*0.9736842105263158</f>
+        <v>0</v>
       </c>
       <c r="AI48">
-        <f>2.34447196412405*1</f>
-        <v>2.3444719641240499</v>
+        <f>1.7953909447311234*0.9736842105263158</f>
+        <v>0</v>
       </c>
       <c r="AJ48">
-        <v>1</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="AK48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:38">
       <c r="A49" t="s">
         <v>149</v>
       </c>
@@ -7561,18 +7522,18 @@
         <v>252</v>
       </c>
       <c r="AF49">
-        <v>134.54054054054049</v>
+        <v>134.5405405405405</v>
       </c>
       <c r="AG49">
-        <v>134.54054054054049</v>
+        <v>134.5405405405405</v>
       </c>
       <c r="AH49">
-        <f>59.7957957957957*1</f>
-        <v>59.795795795795698</v>
+        <f>59.79579579579578*1</f>
+        <v>0</v>
       </c>
       <c r="AI49">
-        <f>1.65099024137717*1</f>
-        <v>1.65099024137717</v>
+        <f>1.6509902413771789*1</f>
+        <v>0</v>
       </c>
       <c r="AJ49">
         <v>1</v>
@@ -7584,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38">
       <c r="A50" t="s">
         <v>151</v>
       </c>
@@ -7679,18 +7640,18 @@
         <v>257</v>
       </c>
       <c r="AF50">
-        <v>128.37837837837839</v>
+        <v>128.3783783783784</v>
       </c>
       <c r="AG50">
-        <v>128.37837837837839</v>
+        <v>128.3783783783784</v>
       </c>
       <c r="AH50">
-        <f>57.057057057057*1</f>
-        <v>57.057057057057001</v>
+        <f>57.05705705705706*1</f>
+        <v>0</v>
       </c>
       <c r="AI50">
         <f>1.35120145464214*1</f>
-        <v>1.35120145464214</v>
+        <v>0</v>
       </c>
       <c r="AJ50">
         <v>1</v>
@@ -7702,243 +7663,243 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:38">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>4.5</v>
+      </c>
+      <c r="AE51">
+        <v>259</v>
+      </c>
+      <c r="AF51">
+        <v>121.1891891891892</v>
+      </c>
+      <c r="AG51">
+        <v>121.1891891891892</v>
+      </c>
+      <c r="AH51">
+        <f>53.861861861861854*1</f>
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <f>1.6142121102331526*1</f>
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>1</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38">
+      <c r="A52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" t="s">
         <v>5</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51" t="s">
-        <v>15</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
-      <c r="AC51">
-        <v>0</v>
-      </c>
-      <c r="AD51">
-        <v>7</v>
-      </c>
-      <c r="AE51">
-        <v>120</v>
-      </c>
-      <c r="AF51">
-        <v>169.45945945945951</v>
-      </c>
-      <c r="AG51">
-        <v>169.45945945945951</v>
-      </c>
-      <c r="AH51">
-        <f>75.3153153153153*1</f>
-        <v>75.315315315315303</v>
-      </c>
-      <c r="AI51">
-        <f>2.03209889218594*1</f>
-        <v>2.0320988921859402</v>
-      </c>
-      <c r="AJ51">
-        <v>1</v>
-      </c>
-      <c r="AK51">
-        <v>1</v>
-      </c>
-      <c r="AL51">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>7.5</v>
+      </c>
+      <c r="AE52">
+        <v>265</v>
+      </c>
+      <c r="AF52">
+        <v>186.9189189189189</v>
+      </c>
+      <c r="AG52">
+        <v>186.9189189189189</v>
+      </c>
+      <c r="AH52">
+        <f>83.07507507507508*1</f>
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <f>1.8606328654969078*1</f>
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>1</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>253</v>
-      </c>
-      <c r="B52" t="s">
-        <v>254</v>
-      </c>
-      <c r="C52" t="s">
-        <v>254</v>
-      </c>
-      <c r="D52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52" t="s">
-        <v>26</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>1</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <v>5</v>
-      </c>
-      <c r="AE52">
-        <v>476</v>
-      </c>
-      <c r="AF52">
-        <v>144.81081081081081</v>
-      </c>
-      <c r="AG52">
-        <v>144.81081081081081</v>
-      </c>
-      <c r="AH52">
-        <f>64.3603603603603*1</f>
-        <v>64.360360360360303</v>
-      </c>
-      <c r="AI52">
-        <f>1.8792286025452*1</f>
-        <v>1.8792286025452001</v>
-      </c>
-      <c r="AJ52">
-        <v>1</v>
-      </c>
-      <c r="AK52">
-        <v>0</v>
-      </c>
-      <c r="AL52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38">
       <c r="A53" t="s">
         <v>156</v>
       </c>
@@ -8039,12 +8000,12 @@
         <v>153.027027027027</v>
       </c>
       <c r="AH53">
-        <f>68.012012012012*1</f>
-        <v>68.012012012011994</v>
+        <f>68.01201201201201*1</f>
+        <v>0</v>
       </c>
       <c r="AI53">
-        <f>1.69052472621439*1</f>
-        <v>1.6905247262143901</v>
+        <f>1.6905247262143976*1</f>
+        <v>0</v>
       </c>
       <c r="AJ53">
         <v>1</v>
@@ -8056,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38">
       <c r="A54" t="s">
         <v>158</v>
       </c>
@@ -8151,18 +8112,18 @@
         <v>269</v>
       </c>
       <c r="AF54">
-        <v>83.189189189189179</v>
+        <v>83.18918918918918</v>
       </c>
       <c r="AG54">
-        <v>83.189189189189179</v>
+        <v>83.18918918918918</v>
       </c>
       <c r="AH54">
-        <f>36.9729729729729*1</f>
-        <v>36.972972972972897</v>
+        <f>36.97297297297297*1</f>
+        <v>0</v>
       </c>
       <c r="AI54">
-        <f>1.03265819716695*1</f>
-        <v>1.03265819716695</v>
+        <f>1.0326581971669548*1</f>
+        <v>0</v>
       </c>
       <c r="AJ54">
         <v>1</v>
@@ -8174,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:38">
       <c r="A55" t="s">
         <v>160</v>
       </c>
@@ -8275,12 +8236,12 @@
         <v>70.86486486486487</v>
       </c>
       <c r="AH55">
-        <f>31.4954954954954*1</f>
-        <v>31.495495495495401</v>
+        <f>31.495495495495494*1</f>
+        <v>0</v>
       </c>
       <c r="AI55">
-        <f>1.04907944374208*1</f>
-        <v>1.0490794437420801</v>
+        <f>1.0490794437420856*1</f>
+        <v>0</v>
       </c>
       <c r="AJ55">
         <v>1</v>
@@ -8292,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:38">
       <c r="A56" t="s">
         <v>163</v>
       </c>
@@ -8393,12 +8354,12 @@
         <v>180.7567567567568</v>
       </c>
       <c r="AH56">
-        <f>80.3363363363363*1</f>
-        <v>80.336336336336302</v>
+        <f>80.33633633633634*1</f>
+        <v>0</v>
       </c>
       <c r="AI56">
-        <f>1.82117977025208*1</f>
-        <v>1.82117977025208</v>
+        <f>1.8211797702520833*1</f>
+        <v>0</v>
       </c>
       <c r="AJ56">
         <v>1</v>
@@ -8410,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:38">
       <c r="A57" t="s">
         <v>165</v>
       </c>
@@ -8505,18 +8466,18 @@
         <v>283</v>
       </c>
       <c r="AF57">
-        <v>66.756756756756758</v>
+        <v>66.75675675675676</v>
       </c>
       <c r="AG57">
-        <v>66.756756756756758</v>
+        <v>66.75675675675676</v>
       </c>
       <c r="AH57">
-        <f>29.6696696696696*1</f>
-        <v>29.669669669669599</v>
+        <f>29.66966966966967*1</f>
+        <v>0</v>
       </c>
       <c r="AI57">
-        <f>0.9609610348686*1</f>
-        <v>0.96096103486859996</v>
+        <f>0.9609610348686002*1</f>
+        <v>0</v>
       </c>
       <c r="AJ57">
         <v>1</v>
@@ -8528,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:38">
       <c r="A58" t="s">
         <v>167</v>
       </c>
@@ -8629,12 +8590,12 @@
         <v>153.027027027027</v>
       </c>
       <c r="AH58">
-        <f>68.012012012012*1</f>
-        <v>68.012012012011994</v>
+        <f>68.01201201201201*1</f>
+        <v>0</v>
       </c>
       <c r="AI58">
-        <f>1.58130005229316*1</f>
-        <v>1.58130005229316</v>
+        <f>1.5813000522931624*1</f>
+        <v>0</v>
       </c>
       <c r="AJ58">
         <v>1</v>
@@ -8646,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:38">
       <c r="A59" t="s">
         <v>169</v>
       </c>
@@ -8741,18 +8702,18 @@
         <v>289</v>
       </c>
       <c r="AF59">
-        <v>125.29729729729731</v>
+        <v>125.2972972972973</v>
       </c>
       <c r="AG59">
-        <v>125.29729729729731</v>
+        <v>125.2972972972973</v>
       </c>
       <c r="AH59">
-        <f>55.6876876876876*1</f>
-        <v>55.6876876876876</v>
+        <f>55.687687687687685*1</f>
+        <v>0</v>
       </c>
       <c r="AI59">
-        <f>1.29388796020481*1</f>
-        <v>1.2938879602048099</v>
+        <f>1.293887960204811*1</f>
+        <v>0</v>
       </c>
       <c r="AJ59">
         <v>1</v>
@@ -8764,7 +8725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:38">
       <c r="A60" t="s">
         <v>171</v>
       </c>
@@ -8859,18 +8820,18 @@
         <v>290</v>
       </c>
       <c r="AF60">
-        <v>121.18918918918919</v>
+        <v>121.1891891891892</v>
       </c>
       <c r="AG60">
-        <v>121.18918918918919</v>
+        <v>121.1891891891892</v>
       </c>
       <c r="AH60">
-        <f>53.8618618618618*1</f>
-        <v>53.861861861861797</v>
+        <f>53.861861861861854*1</f>
+        <v>0</v>
       </c>
       <c r="AI60">
-        <f>1.22618086913801*1</f>
-        <v>1.2261808691380101</v>
+        <f>1.226180869138013*1</f>
+        <v>0</v>
       </c>
       <c r="AJ60">
         <v>1</v>
@@ -8882,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:38">
       <c r="A61" t="s">
         <v>173</v>
       </c>
@@ -8977,18 +8938,18 @@
         <v>291</v>
       </c>
       <c r="AF61">
-        <v>126.32432432432429</v>
+        <v>126.3243243243243</v>
       </c>
       <c r="AG61">
-        <v>126.32432432432429</v>
+        <v>126.3243243243243</v>
       </c>
       <c r="AH61">
-        <f>56.1441441441441*1</f>
-        <v>56.1441441441441</v>
+        <f>56.14414414414414*1</f>
+        <v>0</v>
       </c>
       <c r="AI61">
-        <f>1.86261125667064*1</f>
-        <v>1.8626112566706401</v>
+        <f>1.8626112566706434*1</f>
+        <v>0</v>
       </c>
       <c r="AJ61">
         <v>1</v>
@@ -9000,7 +8961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:38">
       <c r="A62" t="s">
         <v>175</v>
       </c>
@@ -9095,18 +9056,18 @@
         <v>310</v>
       </c>
       <c r="AF62">
-        <v>94.486486486486484</v>
+        <v>94.48648648648648</v>
       </c>
       <c r="AG62">
-        <v>94.486486486486484</v>
+        <v>94.48648648648648</v>
       </c>
       <c r="AH62">
-        <f>41.9939939939939*1</f>
-        <v>41.993993993993897</v>
+        <f>41.99399399399399*1</f>
+        <v>0</v>
       </c>
       <c r="AI62">
-        <f>0.829303870593936*1</f>
-        <v>0.82930387059393595</v>
+        <f>0.8293038705939366*1</f>
+        <v>0</v>
       </c>
       <c r="AJ62">
         <v>1</v>
@@ -9118,7 +9079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:38">
       <c r="A63" t="s">
         <v>178</v>
       </c>
@@ -9219,12 +9180,12 @@
         <v>115.027027027027</v>
       </c>
       <c r="AH63">
-        <f>51.1231231231231*1</f>
-        <v>51.123123123123101</v>
+        <f>51.12312312312312*1</f>
+        <v>0</v>
       </c>
       <c r="AI63">
-        <f>1.58511676582381*1</f>
-        <v>1.5851167658238099</v>
+        <f>1.5851167658238117*1</f>
+        <v>0</v>
       </c>
       <c r="AJ63">
         <v>1</v>
@@ -9236,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:38">
       <c r="A64" t="s">
         <v>180</v>
       </c>
@@ -9337,12 +9298,12 @@
         <v>108.8648648648649</v>
       </c>
       <c r="AH64">
-        <f>48.3843843843843*1</f>
-        <v>48.384384384384298</v>
+        <f>48.38438438438438*1</f>
+        <v>0</v>
       </c>
       <c r="AI64">
-        <f>1.14030306272667*1</f>
-        <v>1.1403030627266699</v>
+        <f>1.1403030627266713*1</f>
+        <v>0</v>
       </c>
       <c r="AJ64">
         <v>1</v>
@@ -9354,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:38">
       <c r="A65" t="s">
         <v>182</v>
       </c>
@@ -9449,18 +9410,18 @@
         <v>317</v>
       </c>
       <c r="AF65">
-        <v>82.162162162162161</v>
+        <v>82.16216216216216</v>
       </c>
       <c r="AG65">
-        <v>82.162162162162161</v>
+        <v>82.16216216216216</v>
       </c>
       <c r="AH65">
-        <f>36.5165165165165*1</f>
-        <v>36.516516516516504</v>
+        <f>36.51651651651651*1</f>
+        <v>0</v>
       </c>
       <c r="AI65">
-        <f>1.13711747134365*1</f>
-        <v>1.13711747134365</v>
+        <f>1.1371174713436545*1</f>
+        <v>0</v>
       </c>
       <c r="AJ65">
         <v>1</v>
@@ -9472,7 +9433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:38">
       <c r="A66" t="s">
         <v>184</v>
       </c>
@@ -9567,18 +9528,18 @@
         <v>318</v>
       </c>
       <c r="AF66">
-        <v>78.054054054054049</v>
+        <v>78.05405405405405</v>
       </c>
       <c r="AG66">
-        <v>78.054054054054049</v>
+        <v>78.05405405405405</v>
       </c>
       <c r="AH66">
-        <f>34.6906906906906*1</f>
-        <v>34.690690690690602</v>
+        <f>34.69069069069069*1</f>
+        <v>0</v>
       </c>
       <c r="AI66">
-        <f>1.01758285324829*1</f>
-        <v>1.01758285324829</v>
+        <f>1.0175828532482913*1</f>
+        <v>0</v>
       </c>
       <c r="AJ66">
         <v>1</v>
@@ -9590,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:38">
       <c r="A67" t="s">
         <v>186</v>
       </c>
@@ -9685,18 +9646,18 @@
         <v>324</v>
       </c>
       <c r="AF67">
-        <v>158.16216216216219</v>
+        <v>158.1621621621622</v>
       </c>
       <c r="AG67">
-        <v>158.16216216216219</v>
+        <v>158.1621621621622</v>
       </c>
       <c r="AH67">
-        <f>70.2942942942942*1</f>
-        <v>70.294294294294204</v>
+        <f>70.29429429429429*1</f>
+        <v>0</v>
       </c>
       <c r="AI67">
-        <f>1.54337593515683*1</f>
-        <v>1.5433759351568299</v>
+        <f>1.5433759351568361*1</f>
+        <v>0</v>
       </c>
       <c r="AJ67">
         <v>1</v>
@@ -9708,7 +9669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:38">
       <c r="A68" t="s">
         <v>188</v>
       </c>
@@ -9803,18 +9764,18 @@
         <v>325</v>
       </c>
       <c r="AF68">
-        <v>125.29729729729731</v>
+        <v>125.2972972972973</v>
       </c>
       <c r="AG68">
-        <v>125.29729729729731</v>
+        <v>125.2972972972973</v>
       </c>
       <c r="AH68">
-        <f>55.6876876876876*1</f>
-        <v>55.6876876876876</v>
+        <f>55.687687687687685*1</f>
+        <v>0</v>
       </c>
       <c r="AI68">
-        <f>1.5337565337518*1</f>
-        <v>1.5337565337518</v>
+        <f>1.5337565337518035*1</f>
+        <v>0</v>
       </c>
       <c r="AJ68">
         <v>1</v>
@@ -9826,7 +9787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:38">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -9921,18 +9882,18 @@
         <v>327</v>
       </c>
       <c r="AF69">
-        <v>93.459459459459467</v>
+        <v>93.45945945945947</v>
       </c>
       <c r="AG69">
-        <v>93.459459459459467</v>
+        <v>93.45945945945947</v>
       </c>
       <c r="AH69">
-        <f>41.5375375375375*1</f>
-        <v>41.537537537537503</v>
+        <f>41.53753753753754*1</f>
+        <v>0</v>
       </c>
       <c r="AI69">
-        <f>1.51670320787783*1</f>
-        <v>1.51670320787783</v>
+        <f>1.5167032078778384*1</f>
+        <v>0</v>
       </c>
       <c r="AJ69">
         <v>1</v>
@@ -9944,7 +9905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:38">
       <c r="A70" t="s">
         <v>192</v>
       </c>
@@ -10039,18 +10000,18 @@
         <v>330</v>
       </c>
       <c r="AF70">
-        <v>68.810810810810807</v>
+        <v>68.81081081081081</v>
       </c>
       <c r="AG70">
-        <v>68.810810810810807</v>
+        <v>68.81081081081081</v>
       </c>
       <c r="AH70">
-        <f>30.5825825825825*1</f>
-        <v>30.5825825825825</v>
+        <f>30.582582582582578*1</f>
+        <v>0</v>
       </c>
       <c r="AI70">
-        <f>0.899252077796371*1</f>
-        <v>0.89925207779637095</v>
+        <f>0.8992520777963717*1</f>
+        <v>0</v>
       </c>
       <c r="AJ70">
         <v>1</v>
@@ -10062,7 +10023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:38">
       <c r="A71" t="s">
         <v>194</v>
       </c>
@@ -10157,18 +10118,18 @@
         <v>332</v>
       </c>
       <c r="AF71">
-        <v>69.837837837837839</v>
+        <v>69.83783783783784</v>
       </c>
       <c r="AG71">
-        <v>69.837837837837839</v>
+        <v>69.83783783783784</v>
       </c>
       <c r="AH71">
-        <f>31.039039039039*1</f>
-        <v>31.039039039039</v>
+        <f>31.03903903903904*1</f>
+        <v>0</v>
       </c>
       <c r="AI71">
-        <f>0.843284790269126*1</f>
-        <v>0.84328479026912595</v>
+        <f>0.8432847902691265*1</f>
+        <v>0</v>
       </c>
       <c r="AJ71">
         <v>1</v>
@@ -10180,7 +10141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:38">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -10275,18 +10236,18 @@
         <v>338</v>
       </c>
       <c r="AF72">
-        <v>106.81081081081081</v>
+        <v>106.8108108108108</v>
       </c>
       <c r="AG72">
-        <v>106.81081081081081</v>
+        <v>106.8108108108108</v>
       </c>
       <c r="AH72">
-        <f>47.4714714714714*1</f>
-        <v>47.471471471471403</v>
+        <f>47.47147147147147*1</f>
+        <v>0</v>
       </c>
       <c r="AI72">
-        <f>1.40649992238632*1</f>
-        <v>1.4064999223863199</v>
+        <f>1.4064999223863262*1</f>
+        <v>0</v>
       </c>
       <c r="AJ72">
         <v>1</v>
@@ -10298,7 +10259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:38">
       <c r="A73" t="s">
         <v>199</v>
       </c>
@@ -10393,18 +10354,18 @@
         <v>353</v>
       </c>
       <c r="AF73">
-        <v>91.405405405405403</v>
+        <v>91.4054054054054</v>
       </c>
       <c r="AG73">
-        <v>91.405405405405403</v>
+        <v>91.4054054054054</v>
       </c>
       <c r="AH73">
-        <f>40.6246246246246*1</f>
-        <v>40.624624624624602</v>
+        <f>40.62462462462462*1</f>
+        <v>0</v>
       </c>
       <c r="AI73">
-        <f>1.34897358181302*1</f>
-        <v>1.34897358181302</v>
+        <f>1.348973581813029*1</f>
+        <v>0</v>
       </c>
       <c r="AJ73">
         <v>1</v>
@@ -10416,7 +10377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:38">
       <c r="A74" t="s">
         <v>201</v>
       </c>
@@ -10511,18 +10472,18 @@
         <v>375</v>
       </c>
       <c r="AF74">
-        <v>136.59459459459461</v>
+        <v>136.5945945945946</v>
       </c>
       <c r="AG74">
-        <v>136.59459459459461</v>
+        <v>136.5945945945946</v>
       </c>
       <c r="AH74">
-        <f>60.7087087087087*1</f>
-        <v>60.708708708708699</v>
+        <f>60.70870870870871*1</f>
+        <v>0</v>
       </c>
       <c r="AI74">
-        <f>1.42200367105221*1</f>
-        <v>1.4220036710522099</v>
+        <f>1.4220036710522148*1</f>
+        <v>0</v>
       </c>
       <c r="AJ74">
         <v>1</v>
@@ -10534,7 +10495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:38">
       <c r="A75" t="s">
         <v>203</v>
       </c>
@@ -10635,12 +10596,12 @@
         <v>119.1351351351351</v>
       </c>
       <c r="AH75">
-        <f>52.9489489489489*1</f>
-        <v>52.948948948948903</v>
+        <f>52.948948948948946*1</f>
+        <v>0</v>
       </c>
       <c r="AI75">
-        <f>1.14878476789144*1</f>
-        <v>1.14878476789144</v>
+        <f>1.1487847678914491*1</f>
+        <v>0</v>
       </c>
       <c r="AJ75">
         <v>1</v>
@@ -10652,7 +10613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:38">
       <c r="A76" t="s">
         <v>205</v>
       </c>
@@ -10753,12 +10714,12 @@
         <v>147.8918918918919</v>
       </c>
       <c r="AH76">
-        <f>65.7297297297297*1</f>
-        <v>65.729729729729698</v>
+        <f>65.72972972972973*1</f>
+        <v>0</v>
       </c>
       <c r="AI76">
-        <f>1.57269228996865*1</f>
-        <v>1.57269228996865</v>
+        <f>1.5726922899686526*1</f>
+        <v>0</v>
       </c>
       <c r="AJ76">
         <v>1</v>
@@ -10770,7 +10731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:38">
       <c r="A77" t="s">
         <v>207</v>
       </c>
@@ -10871,12 +10832,12 @@
         <v>123.2432432432433</v>
       </c>
       <c r="AH77">
-        <f>54.7747747747747*1</f>
-        <v>54.774774774774698</v>
+        <f>54.77477477477478*1</f>
+        <v>0</v>
       </c>
       <c r="AI77">
-        <f>1.33882174581637*1</f>
-        <v>1.33882174581637</v>
+        <f>1.3388217458163716*1</f>
+        <v>0</v>
       </c>
       <c r="AJ77">
         <v>1</v>
@@ -10888,15 +10849,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:38">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
@@ -10914,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -10938,7 +10899,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -10950,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="U78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V78">
         <v>0</v>
@@ -10977,24 +10938,24 @@
         <v>0</v>
       </c>
       <c r="AD78">
-        <v>7.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE78">
-        <v>265</v>
+        <v>385</v>
       </c>
       <c r="AF78">
-        <v>186.91891891891891</v>
+        <v>334.8108108108108</v>
       </c>
       <c r="AG78">
-        <v>186.91891891891891</v>
+        <v>334.8108108108108</v>
       </c>
       <c r="AH78">
-        <f>83.075075075075*1</f>
-        <v>83.075075075075006</v>
+        <f>148.80480480480477*1</f>
+        <v>0</v>
       </c>
       <c r="AI78">
-        <f>1.8606328654969*1</f>
-        <v>1.8606328654969</v>
+        <f>3.1824178262147056*1</f>
+        <v>0</v>
       </c>
       <c r="AJ78">
         <v>1</v>
@@ -11006,7 +10967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:38">
       <c r="A79" t="s">
         <v>212</v>
       </c>
@@ -11101,18 +11062,18 @@
         <v>388</v>
       </c>
       <c r="AF79">
-        <v>145.83783783783781</v>
+        <v>145.8378378378378</v>
       </c>
       <c r="AG79">
-        <v>145.83783783783781</v>
+        <v>145.8378378378378</v>
       </c>
       <c r="AH79">
-        <f>64.8168168168168*1</f>
-        <v>64.816816816816797</v>
+        <f>64.81681681681681*1</f>
+        <v>0</v>
       </c>
       <c r="AI79">
-        <f>1.26941184110057*1</f>
-        <v>1.2694118411005699</v>
+        <f>1.2694118411005753*1</f>
+        <v>0</v>
       </c>
       <c r="AJ79">
         <v>1</v>
@@ -11124,7 +11085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:38">
       <c r="A80" t="s">
         <v>214</v>
       </c>
@@ -11219,18 +11180,18 @@
         <v>390</v>
       </c>
       <c r="AF80">
-        <v>135.56756756756761</v>
+        <v>135.5675675675676</v>
       </c>
       <c r="AG80">
-        <v>135.56756756756761</v>
+        <v>135.5675675675676</v>
       </c>
       <c r="AH80">
-        <f>60.2522522522522*1</f>
-        <v>60.252252252252198</v>
+        <f>60.252252252252255*1</f>
+        <v>0</v>
       </c>
       <c r="AI80">
-        <f>1.31459853356716*1</f>
-        <v>1.3145985335671599</v>
+        <f>1.3145985335671648*1</f>
+        <v>0</v>
       </c>
       <c r="AJ80">
         <v>1</v>
@@ -11242,7 +11203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:38">
       <c r="A81" t="s">
         <v>216</v>
       </c>
@@ -11337,18 +11298,18 @@
         <v>391</v>
       </c>
       <c r="AF81">
-        <v>144.81081081081081</v>
+        <v>144.8108108108108</v>
       </c>
       <c r="AG81">
-        <v>144.81081081081081</v>
+        <v>144.8108108108108</v>
       </c>
       <c r="AH81">
-        <f>64.3603603603603*1</f>
-        <v>64.360360360360303</v>
+        <f>64.36036036036036*1</f>
+        <v>0</v>
       </c>
       <c r="AI81">
-        <f>1.56670135139204*1</f>
-        <v>1.56670135139204</v>
+        <f>1.566701351392049*1</f>
+        <v>0</v>
       </c>
       <c r="AJ81">
         <v>1</v>
@@ -11360,7 +11321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:38">
       <c r="A82" t="s">
         <v>218</v>
       </c>
@@ -11455,18 +11416,18 @@
         <v>392</v>
       </c>
       <c r="AF82">
-        <v>90.378378378378386</v>
+        <v>90.37837837837839</v>
       </c>
       <c r="AG82">
-        <v>90.378378378378386</v>
+        <v>90.37837837837839</v>
       </c>
       <c r="AH82">
-        <f>40.1681681681681*1</f>
-        <v>40.168168168168101</v>
+        <f>40.16816816816817*1</f>
+        <v>0</v>
       </c>
       <c r="AI82">
         <f>1.04476719353201*1</f>
-        <v>1.04476719353201</v>
+        <v>0</v>
       </c>
       <c r="AJ82">
         <v>1</v>
@@ -11478,7 +11439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:38">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -11573,18 +11534,18 @@
         <v>394</v>
       </c>
       <c r="AF83">
-        <v>92.432432432432435</v>
+        <v>92.43243243243244</v>
       </c>
       <c r="AG83">
-        <v>92.432432432432435</v>
+        <v>92.43243243243244</v>
       </c>
       <c r="AH83">
-        <f>41.081081081081*1</f>
-        <v>41.081081081081003</v>
+        <f>41.08108108108108*1</f>
+        <v>0</v>
       </c>
       <c r="AI83">
         <f>0.953951200075367*1</f>
-        <v>0.95395120007536705</v>
+        <v>0</v>
       </c>
       <c r="AJ83">
         <v>1</v>
@@ -11596,7 +11557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:38">
       <c r="A84" t="s">
         <v>222</v>
       </c>
@@ -11697,12 +11658,12 @@
         <v>86.27027027027026</v>
       </c>
       <c r="AH84">
-        <f>38.3423423423423*1</f>
-        <v>38.342342342342299</v>
+        <f>38.342342342342334*1</f>
+        <v>0</v>
       </c>
       <c r="AI84">
-        <f>1.18924444429619*1</f>
-        <v>1.18924444429619</v>
+        <f>1.189244444296196*1</f>
+        <v>0</v>
       </c>
       <c r="AJ84">
         <v>1</v>
@@ -11714,7 +11675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:38">
       <c r="A85" t="s">
         <v>224</v>
       </c>
@@ -11809,18 +11770,18 @@
         <v>408</v>
       </c>
       <c r="AF85">
-        <v>128.37837837837839</v>
+        <v>128.3783783783784</v>
       </c>
       <c r="AG85">
-        <v>128.37837837837839</v>
+        <v>128.3783783783784</v>
       </c>
       <c r="AH85">
-        <f>57.057057057057*1</f>
-        <v>57.057057057057001</v>
+        <f>57.05705705705706*1</f>
+        <v>0</v>
       </c>
       <c r="AI85">
-        <f>0.872679427469109*1</f>
-        <v>0.87267942746910898</v>
+        <f>0.8726794274691099*1</f>
+        <v>0</v>
       </c>
       <c r="AJ85">
         <v>1</v>
@@ -11832,7 +11793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:38">
       <c r="A86" t="s">
         <v>226</v>
       </c>
@@ -11933,12 +11894,12 @@
         <v>153.027027027027</v>
       </c>
       <c r="AH86">
-        <f>68.012012012012*1</f>
-        <v>68.012012012011994</v>
+        <f>68.01201201201201*1</f>
+        <v>0</v>
       </c>
       <c r="AI86">
-        <f>1.72878683047747*1</f>
-        <v>1.7287868304774701</v>
+        <f>1.7287868304774756*1</f>
+        <v>0</v>
       </c>
       <c r="AJ86">
         <v>1</v>
@@ -11950,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:38">
       <c r="A87" t="s">
         <v>228</v>
       </c>
@@ -12045,18 +12006,18 @@
         <v>416</v>
       </c>
       <c r="AF87">
-        <v>99.621621621621614</v>
+        <v>99.62162162162161</v>
       </c>
       <c r="AG87">
-        <v>99.621621621621614</v>
+        <v>99.62162162162161</v>
       </c>
       <c r="AH87">
-        <f>44.2762762762762*1</f>
-        <v>44.276276276276199</v>
+        <f>44.27627627627627*1</f>
+        <v>0</v>
       </c>
       <c r="AI87">
-        <f>1.04929729356852*1</f>
-        <v>1.0492972935685201</v>
+        <f>1.0492972935685256*1</f>
+        <v>0</v>
       </c>
       <c r="AJ87">
         <v>1</v>
@@ -12068,7 +12029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:38">
       <c r="A88" t="s">
         <v>229</v>
       </c>
@@ -12169,12 +12130,12 @@
         <v>199.2432432432432</v>
       </c>
       <c r="AH88">
-        <f>88.5525525525525*1</f>
-        <v>88.552552552552498</v>
+        <f>88.55255255255254*1</f>
+        <v>0</v>
       </c>
       <c r="AI88">
-        <f>1.77742115867002*1</f>
-        <v>1.7774211586700199</v>
+        <f>1.777421158670025*1</f>
+        <v>0</v>
       </c>
       <c r="AJ88">
         <v>1</v>
@@ -12186,7 +12147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:38">
       <c r="A89" t="s">
         <v>231</v>
       </c>
@@ -12281,18 +12242,18 @@
         <v>424</v>
       </c>
       <c r="AF89">
-        <v>126.32432432432429</v>
+        <v>126.3243243243243</v>
       </c>
       <c r="AG89">
-        <v>126.32432432432429</v>
+        <v>126.3243243243243</v>
       </c>
       <c r="AH89">
-        <f>56.1441441441441*1</f>
-        <v>56.1441441441441</v>
+        <f>56.14414414414414*1</f>
+        <v>0</v>
       </c>
       <c r="AI89">
-        <f>1.43466021792532*1</f>
-        <v>1.4346602179253201</v>
+        <f>1.4346602179253292*1</f>
+        <v>0</v>
       </c>
       <c r="AJ89">
         <v>1</v>
@@ -12304,7 +12265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:38">
       <c r="A90" t="s">
         <v>233</v>
       </c>
@@ -12399,18 +12360,18 @@
         <v>428</v>
       </c>
       <c r="AF90">
-        <v>125.29729729729731</v>
+        <v>125.2972972972973</v>
       </c>
       <c r="AG90">
-        <v>125.29729729729731</v>
+        <v>125.2972972972973</v>
       </c>
       <c r="AH90">
-        <f>55.6876876876876*1</f>
-        <v>55.6876876876876</v>
+        <f>55.687687687687685*1</f>
+        <v>0</v>
       </c>
       <c r="AI90">
-        <f>1.23445551856348*1</f>
-        <v>1.23445551856348</v>
+        <f>1.2344555185634856*1</f>
+        <v>0</v>
       </c>
       <c r="AJ90">
         <v>1</v>
@@ -12422,7 +12383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:38">
       <c r="A91" t="s">
         <v>235</v>
       </c>
@@ -12517,18 +12478,18 @@
         <v>436</v>
       </c>
       <c r="AF91">
-        <v>246.48648648648651</v>
+        <v>246.4864864864865</v>
       </c>
       <c r="AG91">
-        <v>246.48648648648651</v>
+        <v>246.4864864864865</v>
       </c>
       <c r="AH91">
-        <f>109.549549549549*1</f>
-        <v>109.549549549549</v>
+        <f>109.54954954954955*1</f>
+        <v>0</v>
       </c>
       <c r="AI91">
-        <f>3.00011462894719*1</f>
-        <v>3.0001146289471898</v>
+        <f>3.0001146289471983*1</f>
+        <v>0</v>
       </c>
       <c r="AJ91">
         <v>1</v>
@@ -12540,15 +12501,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:38">
       <c r="A92" t="s">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="B92" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="C92" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
@@ -12566,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -12608,10 +12569,10 @@
         <v>0</v>
       </c>
       <c r="W92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y92">
         <v>0</v>
@@ -12629,24 +12590,24 @@
         <v>0</v>
       </c>
       <c r="AD92">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE92">
-        <v>496</v>
+        <v>437</v>
       </c>
       <c r="AF92">
-        <v>180.7567567567568</v>
+        <v>233.1351351351351</v>
       </c>
       <c r="AG92">
-        <v>180.7567567567568</v>
+        <v>233.1351351351351</v>
       </c>
       <c r="AH92">
-        <f>80.3363363363363*1</f>
-        <v>80.336336336336302</v>
+        <f>103.6156156156156*1</f>
+        <v>0</v>
       </c>
       <c r="AI92">
-        <f>1.6862801856692*1</f>
-        <v>1.6862801856692</v>
+        <f>2.458174824109061*1</f>
+        <v>0</v>
       </c>
       <c r="AJ92">
         <v>1</v>
@@ -12658,7 +12619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:38">
       <c r="A93" t="s">
         <v>239</v>
       </c>
@@ -12753,18 +12714,18 @@
         <v>439</v>
       </c>
       <c r="AF93">
-        <v>134.54054054054049</v>
+        <v>134.5405405405405</v>
       </c>
       <c r="AG93">
-        <v>134.54054054054049</v>
+        <v>134.5405405405405</v>
       </c>
       <c r="AH93">
-        <f>59.7957957957957*1</f>
-        <v>59.795795795795698</v>
+        <f>59.79579579579578*1</f>
+        <v>0</v>
       </c>
       <c r="AI93">
-        <f>1.50372369520123*1</f>
-        <v>1.5037236952012301</v>
+        <f>1.5037236952012334*1</f>
+        <v>0</v>
       </c>
       <c r="AJ93">
         <v>1</v>
@@ -12776,15 +12737,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:38">
       <c r="A94" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="B94" t="s">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="C94" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
@@ -12802,10 +12763,10 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -12844,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="W94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X94">
         <v>0</v>
@@ -12865,24 +12826,24 @@
         <v>0</v>
       </c>
       <c r="AD94">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AE94">
-        <v>4</v>
+        <v>447</v>
       </c>
       <c r="AF94">
-        <v>161.2432432432432</v>
+        <v>116.054054054054</v>
       </c>
       <c r="AG94">
-        <v>161.2432432432432</v>
+        <v>116.054054054054</v>
       </c>
       <c r="AH94">
-        <f>71.6636636636636*1</f>
-        <v>71.663663663663598</v>
+        <f>51.57957957957958*1</f>
+        <v>0</v>
       </c>
       <c r="AI94">
-        <f>1.62847162139699*1</f>
-        <v>1.6284716213969901</v>
+        <f>1.5861149702145805*1</f>
+        <v>0</v>
       </c>
       <c r="AJ94">
         <v>1</v>
@@ -12894,7 +12855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:38">
       <c r="A95" t="s">
         <v>244</v>
       </c>
@@ -12995,12 +12956,12 @@
         <v>86.27027027027026</v>
       </c>
       <c r="AH95">
-        <f>38.3423423423423*1</f>
-        <v>38.342342342342299</v>
+        <f>38.342342342342334*1</f>
+        <v>0</v>
       </c>
       <c r="AI95">
-        <f>1.28163885519184*1</f>
-        <v>1.2816388551918401</v>
+        <f>1.281638855191846*1</f>
+        <v>0</v>
       </c>
       <c r="AJ95">
         <v>1</v>
@@ -13012,7 +12973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:38">
       <c r="A96" t="s">
         <v>246</v>
       </c>
@@ -13107,18 +13068,18 @@
         <v>456</v>
       </c>
       <c r="AF96">
-        <v>178.70270270270271</v>
+        <v>178.7027027027027</v>
       </c>
       <c r="AG96">
-        <v>178.70270270270271</v>
+        <v>178.7027027027027</v>
       </c>
       <c r="AH96">
-        <f>79.4234234234234*1</f>
-        <v>79.423423423423401</v>
+        <f>79.42342342342342*1</f>
+        <v>0</v>
       </c>
       <c r="AI96">
-        <f>2.13535944967199*1</f>
-        <v>2.1353594496719901</v>
+        <f>2.1353594496719963*1</f>
+        <v>0</v>
       </c>
       <c r="AJ96">
         <v>1</v>
@@ -13130,7 +13091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:38">
       <c r="A97" t="s">
         <v>249</v>
       </c>
@@ -13225,18 +13186,18 @@
         <v>463</v>
       </c>
       <c r="AF97">
-        <v>110.91891891891891</v>
+        <v>110.9189189189189</v>
       </c>
       <c r="AG97">
-        <v>110.91891891891891</v>
+        <v>110.9189189189189</v>
       </c>
       <c r="AH97">
-        <f>49.2972972972972*1</f>
-        <v>49.297297297297199</v>
+        <f>49.29729729729729*1</f>
+        <v>0</v>
       </c>
       <c r="AI97">
-        <f>1.4279962326182*1</f>
-        <v>1.4279962326182001</v>
+        <f>1.4279962326182043*1</f>
+        <v>0</v>
       </c>
       <c r="AJ97">
         <v>1</v>
@@ -13248,7 +13209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:38">
       <c r="A98" t="s">
         <v>251</v>
       </c>
@@ -13349,12 +13310,12 @@
         <v>104.7567567567567</v>
       </c>
       <c r="AH98">
-        <f>46.5585585585585*1</f>
-        <v>46.558558558558502</v>
+        <f>46.55855855855855*1</f>
+        <v>0</v>
       </c>
       <c r="AI98">
-        <f>1.253239616763*1</f>
-        <v>1.253239616763</v>
+        <f>1.2532396167630067*1</f>
+        <v>0</v>
       </c>
       <c r="AJ98">
         <v>1</v>
@@ -13366,24 +13327,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:38">
       <c r="A99" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="B99" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="C99" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="D99" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -13392,7 +13353,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -13416,7 +13377,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R99">
         <v>0</v>
@@ -13437,7 +13398,7 @@
         <v>0</v>
       </c>
       <c r="X99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y99">
         <v>0</v>
@@ -13455,24 +13416,24 @@
         <v>0</v>
       </c>
       <c r="AD99">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AE99">
-        <v>259</v>
+        <v>476</v>
       </c>
       <c r="AF99">
-        <v>121.18918918918919</v>
+        <v>144.8108108108108</v>
       </c>
       <c r="AG99">
-        <v>121.18918918918919</v>
+        <v>144.8108108108108</v>
       </c>
       <c r="AH99">
-        <f>53.8618618618618*1</f>
-        <v>53.861861861861797</v>
+        <f>64.36036036036036*1</f>
+        <v>0</v>
       </c>
       <c r="AI99">
-        <f>1.61421211023315*1</f>
-        <v>1.6142121102331499</v>
+        <f>1.8792286025452027*1</f>
+        <v>0</v>
       </c>
       <c r="AJ99">
         <v>1</v>
@@ -13484,7 +13445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:38">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -13579,18 +13540,18 @@
         <v>480</v>
       </c>
       <c r="AF100">
-        <v>136.59459459459461</v>
+        <v>136.5945945945946</v>
       </c>
       <c r="AG100">
-        <v>136.59459459459461</v>
+        <v>136.5945945945946</v>
       </c>
       <c r="AH100">
-        <f>60.7087087087087*1</f>
-        <v>60.708708708708699</v>
+        <f>60.70870870870871*1</f>
+        <v>0</v>
       </c>
       <c r="AI100">
-        <f>1.49571468190554*1</f>
-        <v>1.49571468190554</v>
+        <f>1.4957146819055491*1</f>
+        <v>0</v>
       </c>
       <c r="AJ100">
         <v>1</v>
@@ -13602,7 +13563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:38">
       <c r="A101" t="s">
         <v>256</v>
       </c>
@@ -13703,12 +13664,12 @@
         <v>122.2162162162162</v>
       </c>
       <c r="AH101">
-        <f>54.3183183183183*1</f>
-        <v>54.318318318318298</v>
+        <f>54.31831831831831*1</f>
+        <v>0</v>
       </c>
       <c r="AI101">
-        <f>1.81760188718088*1</f>
-        <v>1.8176018871808799</v>
+        <f>1.817601887180882*1</f>
+        <v>0</v>
       </c>
       <c r="AJ101">
         <v>1</v>
@@ -13720,7 +13681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:38">
       <c r="A102" t="s">
         <v>258</v>
       </c>
@@ -13815,18 +13776,18 @@
         <v>483</v>
       </c>
       <c r="AF102">
-        <v>116.05405405405401</v>
+        <v>116.054054054054</v>
       </c>
       <c r="AG102">
-        <v>116.05405405405401</v>
+        <v>116.054054054054</v>
       </c>
       <c r="AH102">
-        <f>51.5795795795795*1</f>
-        <v>51.579579579579502</v>
+        <f>51.57957957957958*1</f>
+        <v>0</v>
       </c>
       <c r="AI102">
-        <f>1.23670527543878*1</f>
-        <v>1.2367052754387799</v>
+        <f>1.2367052754387875*1</f>
+        <v>0</v>
       </c>
       <c r="AJ102">
         <v>1</v>
@@ -13838,7 +13799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:38">
       <c r="A103" t="s">
         <v>260</v>
       </c>
@@ -13939,12 +13900,12 @@
         <v>107.8378378378378</v>
       </c>
       <c r="AH103">
-        <f>47.9279279279279*1</f>
-        <v>47.927927927927897</v>
+        <f>47.927927927927925*1</f>
+        <v>0</v>
       </c>
       <c r="AI103">
-        <f>1.15308537735838*1</f>
-        <v>1.15308537735838</v>
+        <f>1.153085377358385*1</f>
+        <v>0</v>
       </c>
       <c r="AJ103">
         <v>1</v>
@@ -13956,7 +13917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:38">
       <c r="A104" t="s">
         <v>262</v>
       </c>
@@ -14051,18 +14012,18 @@
         <v>492</v>
       </c>
       <c r="AF104">
-        <v>149.94594594594591</v>
+        <v>149.9459459459459</v>
       </c>
       <c r="AG104">
-        <v>149.94594594594591</v>
+        <v>149.9459459459459</v>
       </c>
       <c r="AH104">
-        <f>66.6426426426426*1</f>
-        <v>66.642642642642599</v>
+        <f>66.64264264264263*1</f>
+        <v>0</v>
       </c>
       <c r="AI104">
-        <f>1.0940570018475*1</f>
-        <v>1.0940570018475</v>
+        <f>1.0940570018475002*1</f>
+        <v>0</v>
       </c>
       <c r="AJ104">
         <v>1</v>
@@ -14074,7 +14035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:38">
       <c r="A105" t="s">
         <v>262</v>
       </c>
@@ -14175,12 +14136,12 @@
         <v>156.1081081081081</v>
       </c>
       <c r="AH105">
-        <f>69.3813813813813*1</f>
-        <v>69.381381381381303</v>
+        <f>69.38138138138137*1</f>
+        <v>0</v>
       </c>
       <c r="AI105">
-        <f>1.59862235691581*1</f>
-        <v>1.59862235691581</v>
+        <f>1.598622356915816*1</f>
+        <v>0</v>
       </c>
       <c r="AJ105">
         <v>1</v>
@@ -14192,7 +14153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:38">
       <c r="A106" t="s">
         <v>265</v>
       </c>
@@ -14287,18 +14248,18 @@
         <v>494</v>
       </c>
       <c r="AF106">
-        <v>133.51351351351349</v>
+        <v>133.5135135135135</v>
       </c>
       <c r="AG106">
-        <v>133.51351351351349</v>
+        <v>133.5135135135135</v>
       </c>
       <c r="AH106">
-        <f>59.3393393393393*1</f>
-        <v>59.339339339339297</v>
+        <f>59.33933933933934*1</f>
+        <v>0</v>
       </c>
       <c r="AI106">
-        <f>1.76264198431104*1</f>
-        <v>1.7626419843110399</v>
+        <f>1.762641984311048*1</f>
+        <v>0</v>
       </c>
       <c r="AJ106">
         <v>1</v>
@@ -14310,7 +14271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:38">
       <c r="A107" t="s">
         <v>246</v>
       </c>
@@ -14405,18 +14366,18 @@
         <v>495</v>
       </c>
       <c r="AF107">
-        <v>130.43243243243239</v>
+        <v>130.4324324324324</v>
       </c>
       <c r="AG107">
-        <v>130.43243243243239</v>
+        <v>130.4324324324324</v>
       </c>
       <c r="AH107">
-        <f>57.9699699699699*1</f>
-        <v>57.969969969969902</v>
+        <f>57.96996996996996*1</f>
+        <v>0</v>
       </c>
       <c r="AI107">
-        <f>1.62358022059895*1</f>
-        <v>1.62358022059895</v>
+        <f>1.6235802205989562*1</f>
+        <v>0</v>
       </c>
       <c r="AJ107">
         <v>1</v>
@@ -14428,33 +14389,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:38">
       <c r="A108" t="s">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="B108" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="C108" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="D108" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -14496,10 +14457,10 @@
         <v>0</v>
       </c>
       <c r="W108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y108">
         <v>0</v>
@@ -14517,36 +14478,36 @@
         <v>0</v>
       </c>
       <c r="AD108">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE108">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="AF108">
-        <v>116.05405405405401</v>
+        <v>180.7567567567568</v>
       </c>
       <c r="AG108">
-        <v>116.05405405405401</v>
+        <v>180.7567567567568</v>
       </c>
       <c r="AH108">
-        <f>51.5795795795795*1</f>
-        <v>51.579579579579502</v>
+        <f>80.33633633633634*1</f>
+        <v>0</v>
       </c>
       <c r="AI108">
-        <f>1.58611497021458*1</f>
-        <v>1.58611497021458</v>
+        <f>1.6862801856692013*1</f>
+        <v>0</v>
       </c>
       <c r="AJ108">
         <v>1</v>
       </c>
       <c r="AK108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:38">
       <c r="A109" t="s">
         <v>271</v>
       </c>
@@ -14648,11 +14609,11 @@
       </c>
       <c r="AH109">
         <f>50.2102102102102*1</f>
-        <v>50.210210210210199</v>
+        <v>0</v>
       </c>
       <c r="AI109">
-        <f>1.37954411801349*1</f>
-        <v>1.37954411801349</v>
+        <f>1.379544118013495*1</f>
+        <v>0</v>
       </c>
       <c r="AJ109">
         <v>1</v>
@@ -14664,7 +14625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:38">
       <c r="A110" t="s">
         <v>274</v>
       </c>
@@ -14759,18 +14720,18 @@
         <v>498</v>
       </c>
       <c r="AF110">
-        <v>102.70270270270269</v>
+        <v>102.7027027027027</v>
       </c>
       <c r="AG110">
-        <v>102.70270270270269</v>
+        <v>102.7027027027027</v>
       </c>
       <c r="AH110">
-        <f>45.6456456456456*1</f>
-        <v>45.645645645645601</v>
+        <f>45.64564564564564*1</f>
+        <v>0</v>
       </c>
       <c r="AI110">
-        <f>1.07811687438043*1</f>
-        <v>1.0781168743804299</v>
+        <f>1.0781168743804361*1</f>
+        <v>0</v>
       </c>
       <c r="AJ110">
         <v>1</v>
@@ -14782,7 +14743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:38">
       <c r="A111" t="s">
         <v>276</v>
       </c>
@@ -14883,12 +14844,12 @@
         <v>55.45945945945946</v>
       </c>
       <c r="AH111">
-        <f>24.6486486486486*1</f>
-        <v>24.648648648648599</v>
+        <f>24.648648648648646*1</f>
+        <v>0</v>
       </c>
       <c r="AI111">
-        <f>0.859048677354199*1</f>
-        <v>0.85904867735419899</v>
+        <f>0.8590486773541999*1</f>
+        <v>0</v>
       </c>
       <c r="AJ111">
         <v>1</v>
@@ -14900,7 +14861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:38">
       <c r="A112" t="s">
         <v>278</v>
       </c>
@@ -14995,18 +14956,18 @@
         <v>505</v>
       </c>
       <c r="AF112">
-        <v>248.54054054054049</v>
+        <v>248.5405405405405</v>
       </c>
       <c r="AG112">
-        <v>248.54054054054049</v>
+        <v>248.5405405405405</v>
       </c>
       <c r="AH112">
-        <f>110.462462462462*1</f>
-        <v>110.462462462462</v>
+        <f>110.46246246246244*1</f>
+        <v>0</v>
       </c>
       <c r="AI112">
-        <f>2.53197959753991*1</f>
-        <v>2.5319795975399102</v>
+        <f>2.531979597539913*1</f>
+        <v>0</v>
       </c>
       <c r="AJ112">
         <v>1</v>
@@ -15018,148 +14979,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:38">
       <c r="A113" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="B113" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="C113" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="D113" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>27</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>1</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+      <c r="AB113">
+        <v>0</v>
+      </c>
+      <c r="AC113">
+        <v>0</v>
+      </c>
+      <c r="AD113">
+        <v>5</v>
+      </c>
+      <c r="AE113">
+        <v>508</v>
+      </c>
+      <c r="AF113">
+        <v>150.972972972973</v>
+      </c>
+      <c r="AG113">
+        <v>150.972972972973</v>
+      </c>
+      <c r="AH113">
+        <f>67.09909909909909*1</f>
+        <v>0</v>
+      </c>
+      <c r="AI113">
+        <f>1.4569271111121822*1</f>
+        <v>0</v>
+      </c>
+      <c r="AJ113">
+        <v>1</v>
+      </c>
+      <c r="AK113">
+        <v>0</v>
+      </c>
+      <c r="AL113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:38">
+      <c r="A114" t="s">
+        <v>282</v>
+      </c>
+      <c r="B114" t="s">
+        <v>283</v>
+      </c>
+      <c r="C114" t="s">
+        <v>283</v>
+      </c>
+      <c r="D114" t="s">
         <v>4</v>
       </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113" t="s">
-        <v>30</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <v>0</v>
-      </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113">
-        <v>0</v>
-      </c>
-      <c r="N113">
-        <v>0</v>
-      </c>
-      <c r="O113">
-        <v>0</v>
-      </c>
-      <c r="P113">
-        <v>0</v>
-      </c>
-      <c r="Q113">
-        <v>0</v>
-      </c>
-      <c r="R113">
-        <v>0</v>
-      </c>
-      <c r="S113">
-        <v>0</v>
-      </c>
-      <c r="T113">
-        <v>0</v>
-      </c>
-      <c r="U113">
-        <v>0</v>
-      </c>
-      <c r="V113">
-        <v>0</v>
-      </c>
-      <c r="W113">
-        <v>0</v>
-      </c>
-      <c r="X113">
-        <v>0</v>
-      </c>
-      <c r="Y113">
-        <v>0</v>
-      </c>
-      <c r="Z113">
-        <v>0</v>
-      </c>
-      <c r="AA113">
-        <v>0</v>
-      </c>
-      <c r="AB113">
-        <v>1</v>
-      </c>
-      <c r="AC113">
-        <v>0</v>
-      </c>
-      <c r="AD113">
-        <v>4.5</v>
-      </c>
-      <c r="AE113">
-        <v>617</v>
-      </c>
-      <c r="AF113">
-        <v>127.3513513513514</v>
-      </c>
-      <c r="AG113">
-        <v>127.3513513513514</v>
-      </c>
-      <c r="AH113">
-        <f>56.6006006006005*1</f>
-        <v>56.600600600600501</v>
-      </c>
-      <c r="AI113">
-        <f>1.5278168778289*1</f>
-        <v>1.5278168778289001</v>
-      </c>
-      <c r="AJ113">
-        <v>1</v>
-      </c>
-      <c r="AK113">
-        <v>0</v>
-      </c>
-      <c r="AL113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>296</v>
-      </c>
-      <c r="B114" t="s">
-        <v>297</v>
-      </c>
-      <c r="C114" t="s">
-        <v>297</v>
-      </c>
-      <c r="D114" t="s">
-        <v>6</v>
-      </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="s">
         <v>27</v>
@@ -15225,24 +15186,24 @@
         <v>0</v>
       </c>
       <c r="AD114">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AE114">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="AF114">
-        <v>218.7567567567568</v>
+        <v>132.4864864864865</v>
       </c>
       <c r="AG114">
-        <v>218.7567567567568</v>
+        <v>132.4864864864865</v>
       </c>
       <c r="AH114">
-        <f>97.2252252252252*1</f>
-        <v>97.225225225225202</v>
+        <f>58.88288288288288*1</f>
+        <v>0</v>
       </c>
       <c r="AI114">
-        <f>1.51775619772679*1</f>
-        <v>1.5177561977267899</v>
+        <f>1.4749867221331965*1</f>
+        <v>0</v>
       </c>
       <c r="AJ114">
         <v>1</v>
@@ -15254,7 +15215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:38">
       <c r="A115" t="s">
         <v>284</v>
       </c>
@@ -15355,12 +15316,12 @@
         <v>114</v>
       </c>
       <c r="AH115">
-        <f>50.6666666666666*1</f>
-        <v>50.6666666666666</v>
+        <f>50.666666666666664*1</f>
+        <v>0</v>
       </c>
       <c r="AI115">
-        <f>0.924886410024551*1</f>
-        <v>0.92488641002455096</v>
+        <f>0.9248864100245516*1</f>
+        <v>0</v>
       </c>
       <c r="AJ115">
         <v>1</v>
@@ -15372,7 +15333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:38">
       <c r="A116" t="s">
         <v>74</v>
       </c>
@@ -15467,18 +15428,18 @@
         <v>521</v>
       </c>
       <c r="AF116">
-        <v>176.64864864864859</v>
+        <v>176.6486486486486</v>
       </c>
       <c r="AG116">
-        <v>176.64864864864859</v>
+        <v>176.6486486486486</v>
       </c>
       <c r="AH116">
-        <f>78.5105105105105*1</f>
-        <v>78.5105105105105</v>
+        <f>78.51051051051051*1</f>
+        <v>0</v>
       </c>
       <c r="AI116">
-        <f>2.02019327673559*1</f>
-        <v>2.0201932767355899</v>
+        <f>2.0201932767355912*1</f>
+        <v>0</v>
       </c>
       <c r="AJ116">
         <v>1</v>
@@ -15490,7 +15451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:38">
       <c r="A117" t="s">
         <v>288</v>
       </c>
@@ -15585,18 +15546,18 @@
         <v>522</v>
       </c>
       <c r="AF117">
-        <v>136.59459459459461</v>
+        <v>136.5945945945946</v>
       </c>
       <c r="AG117">
-        <v>136.59459459459461</v>
+        <v>136.5945945945946</v>
       </c>
       <c r="AH117">
-        <f>60.7087087087087*1</f>
-        <v>60.708708708708699</v>
+        <f>60.70870870870871*1</f>
+        <v>0</v>
       </c>
       <c r="AI117">
-        <f>1.38468335937727*1</f>
-        <v>1.3846833593772701</v>
+        <f>1.3846833593772785*1</f>
+        <v>0</v>
       </c>
       <c r="AJ117">
         <v>1</v>
@@ -15608,7 +15569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:38">
       <c r="A118" t="s">
         <v>290</v>
       </c>
@@ -15709,12 +15670,12 @@
         <v>109.8918918918919</v>
       </c>
       <c r="AH118">
-        <f>48.8408408408408*1</f>
-        <v>48.840840840840798</v>
+        <f>48.84084084084085*1</f>
+        <v>0</v>
       </c>
       <c r="AI118">
-        <f>2.08533688771953*1</f>
-        <v>2.0853368877195302</v>
+        <f>2.085336887719535*1</f>
+        <v>0</v>
       </c>
       <c r="AJ118">
         <v>1</v>
@@ -15726,7 +15687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:38">
       <c r="A119" t="s">
         <v>292</v>
       </c>
@@ -15827,12 +15788,12 @@
         <v>58.54054054054054</v>
       </c>
       <c r="AH119">
-        <f>26.018018018018*1</f>
-        <v>26.018018018018001</v>
+        <f>26.018018018018015*1</f>
+        <v>0</v>
       </c>
       <c r="AI119">
-        <f>0.849395477323867*1</f>
-        <v>0.849395477323867</v>
+        <f>0.8493954773238672*1</f>
+        <v>0</v>
       </c>
       <c r="AJ119">
         <v>1</v>
@@ -15844,7 +15805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:38">
       <c r="A120" t="s">
         <v>100</v>
       </c>
@@ -15939,18 +15900,18 @@
         <v>528</v>
       </c>
       <c r="AF120">
-        <v>74.972972972972968</v>
+        <v>74.97297297297297</v>
       </c>
       <c r="AG120">
-        <v>74.972972972972968</v>
+        <v>74.97297297297297</v>
       </c>
       <c r="AH120">
-        <f>33.3213213213213*1</f>
-        <v>33.3213213213213</v>
+        <f>33.321321321321314*1</f>
+        <v>0</v>
       </c>
       <c r="AI120">
-        <f>0.838058078291367*1</f>
-        <v>0.83805807829136703</v>
+        <f>0.8380580782913678*1</f>
+        <v>0</v>
       </c>
       <c r="AJ120">
         <v>1</v>
@@ -15962,30 +15923,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:38">
       <c r="A121" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B121" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C121" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="D121" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="s">
         <v>27</v>
@@ -16051,24 +16012,24 @@
         <v>0</v>
       </c>
       <c r="AD121">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="AE121">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="AF121">
-        <v>132.48648648648651</v>
+        <v>218.7567567567568</v>
       </c>
       <c r="AG121">
-        <v>132.48648648648651</v>
+        <v>218.7567567567568</v>
       </c>
       <c r="AH121">
-        <f>58.8828828828828*1</f>
-        <v>58.882882882882797</v>
+        <f>97.22522522522523*1</f>
+        <v>0</v>
       </c>
       <c r="AI121">
-        <f>1.47498672213319*1</f>
-        <v>1.47498672213319</v>
+        <f>1.5177561977267937*1</f>
+        <v>0</v>
       </c>
       <c r="AJ121">
         <v>1</v>
@@ -16080,7 +16041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:38">
       <c r="A122" t="s">
         <v>298</v>
       </c>
@@ -16175,18 +16136,18 @@
         <v>533</v>
       </c>
       <c r="AF122">
-        <v>64.702702702702695</v>
+        <v>64.70270270270269</v>
       </c>
       <c r="AG122">
-        <v>64.702702702702695</v>
+        <v>64.70270270270269</v>
       </c>
       <c r="AH122">
-        <f>28.7567567567567*1</f>
-        <v>28.756756756756701</v>
+        <f>28.756756756756754*1</f>
+        <v>0</v>
       </c>
       <c r="AI122">
-        <f>0.560244180481075*1</f>
-        <v>0.56024418048107505</v>
+        <f>0.5602441804810754*1</f>
+        <v>0</v>
       </c>
       <c r="AJ122">
         <v>1</v>
@@ -16198,7 +16159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:38">
       <c r="A123" t="s">
         <v>300</v>
       </c>
@@ -16293,18 +16254,18 @@
         <v>549</v>
       </c>
       <c r="AF123">
-        <v>78.054054054054049</v>
+        <v>78.05405405405405</v>
       </c>
       <c r="AG123">
-        <v>78.054054054054049</v>
+        <v>78.05405405405405</v>
       </c>
       <c r="AH123">
-        <f>34.6906906906906*1</f>
-        <v>34.690690690690602</v>
+        <f>34.69069069069069*1</f>
+        <v>0</v>
       </c>
       <c r="AI123">
-        <f>1.16272965297163*1</f>
-        <v>1.16272965297163</v>
+        <f>1.1627296529716349*1</f>
+        <v>0</v>
       </c>
       <c r="AJ123">
         <v>1</v>
@@ -16316,7 +16277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:38">
       <c r="A124" t="s">
         <v>302</v>
       </c>
@@ -16411,18 +16372,18 @@
         <v>586</v>
       </c>
       <c r="AF124">
-        <v>159.18918918918919</v>
+        <v>159.1891891891892</v>
       </c>
       <c r="AG124">
-        <v>159.18918918918919</v>
+        <v>159.1891891891892</v>
       </c>
       <c r="AH124">
-        <f>70.7507507507507*1</f>
-        <v>70.750750750750697</v>
+        <f>70.75075075075075*1</f>
+        <v>0</v>
       </c>
       <c r="AI124">
-        <f>2.36928692977886*1</f>
-        <v>2.3692869297788599</v>
+        <f>2.3692869297788643*1</f>
+        <v>0</v>
       </c>
       <c r="AJ124">
         <v>1</v>
@@ -16434,7 +16395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:38">
       <c r="A125" t="s">
         <v>304</v>
       </c>
@@ -16535,12 +16496,12 @@
         <v>156.1081081081081</v>
       </c>
       <c r="AH125">
-        <f>69.3813813813813*1</f>
-        <v>69.381381381381303</v>
+        <f>69.38138138138137*1</f>
+        <v>0</v>
       </c>
       <c r="AI125">
-        <f>1.59881784991151*1</f>
-        <v>1.59881784991151</v>
+        <f>1.5988178499115149*1</f>
+        <v>0</v>
       </c>
       <c r="AJ125">
         <v>1</v>
@@ -16552,7 +16513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:38">
       <c r="A126" t="s">
         <v>171</v>
       </c>
@@ -16647,18 +16608,18 @@
         <v>588</v>
       </c>
       <c r="AF126">
-        <v>149.94594594594591</v>
+        <v>149.9459459459459</v>
       </c>
       <c r="AG126">
-        <v>149.94594594594591</v>
+        <v>149.9459459459459</v>
       </c>
       <c r="AH126">
-        <f>66.6426426426426*1</f>
-        <v>66.642642642642599</v>
+        <f>66.64264264264263*1</f>
+        <v>0</v>
       </c>
       <c r="AI126">
-        <f>1.94602987404653*1</f>
-        <v>1.9460298740465301</v>
+        <f>1.9460298740465387*1</f>
+        <v>0</v>
       </c>
       <c r="AJ126">
         <v>1</v>
@@ -16670,7 +16631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:38">
       <c r="A127" t="s">
         <v>307</v>
       </c>
@@ -16765,18 +16726,18 @@
         <v>589</v>
       </c>
       <c r="AF127">
-        <v>130.43243243243239</v>
+        <v>130.4324324324324</v>
       </c>
       <c r="AG127">
-        <v>130.43243243243239</v>
+        <v>130.4324324324324</v>
       </c>
       <c r="AH127">
-        <f>57.9699699699699*1</f>
-        <v>57.969969969969902</v>
+        <f>57.96996996996996*1</f>
+        <v>0</v>
       </c>
       <c r="AI127">
-        <f>1.66833956769503*1</f>
-        <v>1.6683395676950299</v>
+        <f>1.6683395676950397*1</f>
+        <v>0</v>
       </c>
       <c r="AJ127">
         <v>1</v>
@@ -16788,7 +16749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:38">
       <c r="A128" t="s">
         <v>309</v>
       </c>
@@ -16883,18 +16844,18 @@
         <v>590</v>
       </c>
       <c r="AF128">
-        <v>142.75675675675669</v>
+        <v>142.7567567567567</v>
       </c>
       <c r="AG128">
-        <v>142.75675675675669</v>
+        <v>142.7567567567567</v>
       </c>
       <c r="AH128">
-        <f>63.4474474474474*1</f>
-        <v>63.447447447447402</v>
+        <f>63.44744744744744*1</f>
+        <v>0</v>
       </c>
       <c r="AI128">
-        <f>1.64137212188983*1</f>
-        <v>1.6413721218898301</v>
+        <f>1.6413721218898345*1</f>
+        <v>0</v>
       </c>
       <c r="AJ128">
         <v>1</v>
@@ -16906,7 +16867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:38">
       <c r="A129" t="s">
         <v>196</v>
       </c>
@@ -17001,18 +16962,18 @@
         <v>592</v>
       </c>
       <c r="AF129">
-        <v>64.702702702702695</v>
+        <v>64.70270270270269</v>
       </c>
       <c r="AG129">
-        <v>64.702702702702695</v>
+        <v>64.70270270270269</v>
       </c>
       <c r="AH129">
-        <f>28.7567567567567*1</f>
-        <v>28.756756756756701</v>
+        <f>28.756756756756754*1</f>
+        <v>0</v>
       </c>
       <c r="AI129">
-        <f>0.557313830196301*1</f>
-        <v>0.55731383019630099</v>
+        <f>0.5573138301963015*1</f>
+        <v>0</v>
       </c>
       <c r="AJ129">
         <v>1</v>
@@ -17024,7 +16985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:38">
       <c r="A130" t="s">
         <v>312</v>
       </c>
@@ -17125,12 +17086,12 @@
         <v>65.72972972972974</v>
       </c>
       <c r="AH130">
-        <f>29.2132132132132*1</f>
-        <v>29.213213213213201</v>
+        <f>29.21321321321322*1</f>
+        <v>0</v>
       </c>
       <c r="AI130">
-        <f>0.816122058694614*1</f>
-        <v>0.81612205869461396</v>
+        <f>0.8161220586946144*1</f>
+        <v>0</v>
       </c>
       <c r="AJ130">
         <v>1</v>
@@ -17142,7 +17103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:38">
       <c r="A131" t="s">
         <v>314</v>
       </c>
@@ -17243,12 +17204,12 @@
         <v>76</v>
       </c>
       <c r="AH131">
-        <f>33.7777777777777*1</f>
-        <v>33.7777777777777</v>
+        <f>33.77777777777778*1</f>
+        <v>0</v>
       </c>
       <c r="AI131">
-        <f>0.914591412302636*1</f>
-        <v>0.91459141230263596</v>
+        <f>0.9145914123026361*1</f>
+        <v>0</v>
       </c>
       <c r="AJ131">
         <v>1</v>
@@ -17260,7 +17221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:38">
       <c r="A132" t="s">
         <v>316</v>
       </c>
@@ -17355,18 +17316,18 @@
         <v>607</v>
       </c>
       <c r="AF132">
-        <v>106.81081081081081</v>
+        <v>106.8108108108108</v>
       </c>
       <c r="AG132">
-        <v>106.81081081081081</v>
+        <v>106.8108108108108</v>
       </c>
       <c r="AH132">
-        <f>47.4714714714714*1</f>
-        <v>47.471471471471403</v>
+        <f>47.47147147147147*1</f>
+        <v>0</v>
       </c>
       <c r="AI132">
-        <f>1.70260868781133*1</f>
-        <v>1.70260868781133</v>
+        <f>1.7026086878113387*1</f>
+        <v>0</v>
       </c>
       <c r="AJ132">
         <v>1</v>
@@ -17378,7 +17339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:38">
       <c r="A133" t="s">
         <v>318</v>
       </c>
@@ -17473,18 +17434,18 @@
         <v>611</v>
       </c>
       <c r="AF133">
-        <v>79.081081081081081</v>
+        <v>79.08108108108108</v>
       </c>
       <c r="AG133">
-        <v>79.081081081081081</v>
+        <v>79.08108108108108</v>
       </c>
       <c r="AH133">
-        <f>35.1471471471471*1</f>
-        <v>35.147147147147102</v>
+        <f>35.147147147147145*1</f>
+        <v>0</v>
       </c>
       <c r="AI133">
-        <f>0.805487341521291*1</f>
-        <v>0.80548734152129098</v>
+        <f>0.8054873415212912*1</f>
+        <v>0</v>
       </c>
       <c r="AJ133">
         <v>1</v>
@@ -17496,7 +17457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:38">
       <c r="A134" t="s">
         <v>320</v>
       </c>
@@ -17591,18 +17552,18 @@
         <v>613</v>
       </c>
       <c r="AF134">
-        <v>52.378378378378372</v>
+        <v>52.37837837837837</v>
       </c>
       <c r="AG134">
-        <v>52.378378378378372</v>
+        <v>52.37837837837837</v>
       </c>
       <c r="AH134">
-        <f>23.2792792792792*1</f>
-        <v>23.279279279279201</v>
+        <f>23.279279279279276*1</f>
+        <v>0</v>
       </c>
       <c r="AI134">
-        <f>0.729967852503885*1</f>
-        <v>0.72996785250388496</v>
+        <f>0.7299678525038855*1</f>
+        <v>0</v>
       </c>
       <c r="AJ134">
         <v>1</v>
@@ -17614,24 +17575,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:38">
       <c r="A135" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="B135" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="C135" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="D135" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -17640,7 +17601,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -17688,7 +17649,7 @@
         <v>0</v>
       </c>
       <c r="Y135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z135">
         <v>0</v>
@@ -17697,30 +17658,30 @@
         <v>0</v>
       </c>
       <c r="AB135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC135">
         <v>0</v>
       </c>
       <c r="AD135">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AE135">
-        <v>508</v>
+        <v>617</v>
       </c>
       <c r="AF135">
-        <v>150.972972972973</v>
+        <v>127.3513513513514</v>
       </c>
       <c r="AG135">
-        <v>150.972972972973</v>
+        <v>127.3513513513514</v>
       </c>
       <c r="AH135">
-        <f>67.099099099099*1</f>
-        <v>67.099099099099007</v>
+        <f>56.60060060060059*1</f>
+        <v>0</v>
       </c>
       <c r="AI135">
-        <f>1.45692711111218*1</f>
-        <v>1.45692711111218</v>
+        <f>1.527816877828906*1</f>
+        <v>0</v>
       </c>
       <c r="AJ135">
         <v>1</v>
@@ -17732,7 +17693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:38">
       <c r="A136" t="s">
         <v>67</v>
       </c>
@@ -17827,18 +17788,18 @@
         <v>619</v>
       </c>
       <c r="AF136">
-        <v>89.351351351351354</v>
+        <v>89.35135135135135</v>
       </c>
       <c r="AG136">
-        <v>89.351351351351354</v>
+        <v>89.35135135135135</v>
       </c>
       <c r="AH136">
-        <f>39.7117117117117*1</f>
-        <v>39.7117117117117</v>
+        <f>39.71171171171171*1</f>
+        <v>0</v>
       </c>
       <c r="AI136">
-        <f>1.1511654404958*1</f>
-        <v>1.1511654404958001</v>
+        <f>1.1511654404958034*1</f>
+        <v>0</v>
       </c>
       <c r="AJ136">
         <v>1</v>
@@ -17850,7 +17811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:38">
       <c r="A137" t="s">
         <v>326</v>
       </c>
@@ -17945,18 +17906,18 @@
         <v>620</v>
       </c>
       <c r="AF137">
-        <v>141.72972972972971</v>
+        <v>141.7297297297297</v>
       </c>
       <c r="AG137">
-        <v>141.72972972972971</v>
+        <v>141.7297297297297</v>
       </c>
       <c r="AH137">
-        <f>62.9909909909909*1</f>
-        <v>62.990990990990902</v>
+        <f>62.99099099099099*1</f>
+        <v>0</v>
       </c>
       <c r="AI137">
-        <f>1.1783312085186*1</f>
-        <v>1.1783312085186</v>
+        <f>1.178331208518605*1</f>
+        <v>0</v>
       </c>
       <c r="AJ137">
         <v>1</v>
@@ -17968,7 +17929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:38">
       <c r="A138" t="s">
         <v>328</v>
       </c>
@@ -18063,18 +18024,18 @@
         <v>623</v>
       </c>
       <c r="AF138">
-        <v>61.621621621621628</v>
+        <v>61.62162162162163</v>
       </c>
       <c r="AG138">
-        <v>61.621621621621628</v>
+        <v>61.62162162162163</v>
       </c>
       <c r="AH138">
-        <f>27.3873873873873*1</f>
-        <v>27.387387387387299</v>
+        <f>27.38738738738739*1</f>
+        <v>0</v>
       </c>
       <c r="AI138">
-        <f>0.714759990040647*1</f>
-        <v>0.71475999004064705</v>
+        <f>0.7147599900406472*1</f>
+        <v>0</v>
       </c>
       <c r="AJ138">
         <v>1</v>
@@ -18086,15 +18047,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:38">
       <c r="A139" t="s">
-        <v>146</v>
+        <v>331</v>
       </c>
       <c r="B139" t="s">
-        <v>147</v>
+        <v>332</v>
       </c>
       <c r="C139" t="s">
-        <v>148</v>
+        <v>332</v>
       </c>
       <c r="D139" t="s">
         <v>6</v>
@@ -18112,7 +18073,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -18133,7 +18094,7 @@
         <v>0</v>
       </c>
       <c r="P139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q139">
         <v>0</v>
@@ -18169,41 +18130,42 @@
         <v>0</v>
       </c>
       <c r="AB139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC139">
         <v>0</v>
       </c>
       <c r="AD139">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE139">
-        <v>250</v>
+        <v>631</v>
       </c>
       <c r="AF139">
-        <v>169.45945945945951</v>
+        <v>215.6756756756757</v>
       </c>
       <c r="AG139">
-        <v>169.45945945945951</v>
+        <v>215.6756756756757</v>
       </c>
       <c r="AH139">
-        <f>75.3153153153153*0.973684210526315</f>
-        <v>73.333333333333272</v>
+        <f>95.85585585585585*1</f>
+        <v>0</v>
       </c>
       <c r="AI139">
+        <f>2.3444719641240526*1</f>
         <v>0</v>
       </c>
       <c r="AJ139">
-        <v>0.97368421052631582</v>
+        <v>1</v>
       </c>
       <c r="AK139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL139">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:38">
       <c r="A140" t="s">
         <v>333</v>
       </c>
@@ -18298,18 +18260,18 @@
         <v>634</v>
       </c>
       <c r="AF140">
-        <v>57.513513513513523</v>
+        <v>57.51351351351352</v>
       </c>
       <c r="AG140">
-        <v>57.513513513513523</v>
+        <v>57.51351351351352</v>
       </c>
       <c r="AH140">
-        <f>25.5615615615615*1</f>
-        <v>25.561561561561501</v>
+        <f>25.56156156156156*1</f>
+        <v>0</v>
       </c>
       <c r="AI140">
         <f>0.913291629325237*1</f>
-        <v>0.913291629325237</v>
+        <v>0</v>
       </c>
       <c r="AJ140">
         <v>1</v>
@@ -18321,7 +18283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:38">
       <c r="A141" t="s">
         <v>335</v>
       </c>
@@ -18422,12 +18384,12 @@
         <v>123.2432432432433</v>
       </c>
       <c r="AH141">
-        <f>54.7747747747747*1</f>
-        <v>54.774774774774698</v>
+        <f>54.77477477477478*1</f>
+        <v>0</v>
       </c>
       <c r="AI141">
-        <f>1.58448858600084*1</f>
-        <v>1.58448858600084</v>
+        <f>1.5844885860008446*1</f>
+        <v>0</v>
       </c>
       <c r="AJ141">
         <v>1</v>
@@ -18439,7 +18401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:38">
       <c r="A142" t="s">
         <v>338</v>
       </c>
@@ -18540,12 +18502,12 @@
         <v>84.21621621621621</v>
       </c>
       <c r="AH142">
-        <f>37.4294294294294*1</f>
-        <v>37.429429429429398</v>
+        <f>37.429429429429426*1</f>
+        <v>0</v>
       </c>
       <c r="AI142">
-        <f>1.22088320951843*1</f>
-        <v>1.2208832095184301</v>
+        <f>1.2208832095184323*1</f>
+        <v>0</v>
       </c>
       <c r="AJ142">
         <v>1</v>
@@ -18557,7 +18519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:38">
       <c r="A143" t="s">
         <v>340</v>
       </c>
@@ -18652,18 +18614,18 @@
         <v>652</v>
       </c>
       <c r="AF143">
-        <v>95.513513513513516</v>
+        <v>95.51351351351352</v>
       </c>
       <c r="AG143">
-        <v>95.513513513513516</v>
+        <v>95.51351351351352</v>
       </c>
       <c r="AH143">
-        <f>42.4504504504504*1</f>
-        <v>42.450450450450397</v>
+        <f>42.450450450450454*1</f>
+        <v>0</v>
       </c>
       <c r="AI143">
-        <f>1.07535736855874*1</f>
-        <v>1.0753573685587401</v>
+        <f>1.0753573685587423*1</f>
+        <v>0</v>
       </c>
       <c r="AJ143">
         <v>1</v>
@@ -18675,7 +18637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:38">
       <c r="A144" t="s">
         <v>342</v>
       </c>
@@ -18770,18 +18732,18 @@
         <v>654</v>
       </c>
       <c r="AF144">
-        <v>91.405405405405403</v>
+        <v>91.4054054054054</v>
       </c>
       <c r="AG144">
-        <v>91.405405405405403</v>
+        <v>91.4054054054054</v>
       </c>
       <c r="AH144">
-        <f>40.6246246246246*1</f>
-        <v>40.624624624624602</v>
+        <f>40.62462462462462*1</f>
+        <v>0</v>
       </c>
       <c r="AI144">
-        <f>0.934698799050748*1</f>
-        <v>0.93469879905074804</v>
+        <f>0.9346987990507482*1</f>
+        <v>0</v>
       </c>
       <c r="AJ144">
         <v>1</v>
@@ -18793,7 +18755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:38">
       <c r="A145" t="s">
         <v>345</v>
       </c>
@@ -18888,18 +18850,18 @@
         <v>655</v>
       </c>
       <c r="AF145">
-        <v>80.108108108108098</v>
+        <v>80.1081081081081</v>
       </c>
       <c r="AG145">
-        <v>80.108108108108098</v>
+        <v>80.1081081081081</v>
       </c>
       <c r="AH145">
-        <f>35.6036036036035*1</f>
-        <v>35.603603603603503</v>
+        <f>35.603603603603595*1</f>
+        <v>0</v>
       </c>
       <c r="AI145">
-        <f>1.0231667475721*1</f>
-        <v>1.0231667475721</v>
+        <f>1.0231667475721016*1</f>
+        <v>0</v>
       </c>
       <c r="AJ145">
         <v>1</v>
@@ -18911,7 +18873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:38">
       <c r="A146" t="s">
         <v>348</v>
       </c>
